--- a/Documentacion/Protocolo MixOil - Contraut Franco.xlsx
+++ b/Documentacion/Protocolo MixOil - Contraut Franco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Electrónica\Contraut\Proyectos\V5 - MixOil\Franco(Ultimo)\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Electrónica\Contraut\Proyectos\V5-MixOil\Franco(Ultimo)\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B550DB19-E167-4683-BBB6-AC859AD67835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359019A-CA03-4C77-924F-6B18CAAB4C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="604">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2509,6 +2509,9 @@
   </si>
   <si>
     <t>SE UTILIZA SKTXT [23-0]</t>
+  </si>
+  <si>
+    <t>A=01000600a0051000020030070090200000000000000000005008650321015e</t>
   </si>
 </sst>
 </file>
@@ -3183,7 +3186,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3288,36 +3291,10 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3333,23 +3310,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3361,14 +3322,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3377,25 +3330,68 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3409,39 +3405,39 @@
     <xf numFmtId="0" fontId="20" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3462,58 +3458,89 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3525,42 +3552,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3791,8 +3793,8 @@
   </sheetPr>
   <dimension ref="A1:AM1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4067,7 +4069,7 @@
       <c r="R7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="132" t="s">
+      <c r="S7" s="79" t="s">
         <v>601</v>
       </c>
       <c r="T7" s="3" t="s">
@@ -5835,18 +5837,18 @@
       <c r="C46" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M46" s="58" t="s">
+      <c r="M46" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="60" t="s">
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
     </row>
     <row r="47" spans="1:39" ht="14.25" customHeight="1">
       <c r="A47" s="6" t="s">
@@ -5855,10 +5857,10 @@
       <c r="B47" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="59"/>
+      <c r="D47" s="82"/>
       <c r="F47" s="24" t="s">
         <v>123</v>
       </c>
@@ -5906,10 +5908,10 @@
       <c r="B48" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="59"/>
+      <c r="D48" s="82"/>
       <c r="F48" s="13" t="s">
         <v>131</v>
       </c>
@@ -5954,10 +5956,10 @@
       <c r="B49" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="59"/>
+      <c r="D49" s="82"/>
       <c r="F49" s="13" t="s">
         <v>131</v>
       </c>
@@ -6004,10 +6006,10 @@
       <c r="B50" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="59"/>
+      <c r="D50" s="82"/>
       <c r="F50" s="13" t="s">
         <v>146</v>
       </c>
@@ -6058,10 +6060,10 @@
       <c r="B51" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="59"/>
+      <c r="D51" s="82"/>
       <c r="F51" s="12" t="s">
         <v>150</v>
       </c>
@@ -6115,10 +6117,10 @@
       <c r="B52" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="59"/>
+      <c r="D52" s="82"/>
       <c r="E52" s="2">
         <v>16</v>
       </c>
@@ -6169,10 +6171,10 @@
       <c r="B53" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="59"/>
+      <c r="D53" s="82"/>
       <c r="E53" s="2">
         <v>32</v>
       </c>
@@ -6223,10 +6225,10 @@
       <c r="B54" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="59"/>
+      <c r="D54" s="82"/>
       <c r="E54" s="2">
         <v>64</v>
       </c>
@@ -6236,11 +6238,11 @@
       <c r="G54" s="9">
         <v>4</v>
       </c>
-      <c r="H54" s="64" t="s">
+      <c r="H54" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
       <c r="L54" s="28">
         <v>5</v>
       </c>
@@ -6279,10 +6281,10 @@
       <c r="B55" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="59"/>
+      <c r="D55" s="82"/>
       <c r="E55" s="2">
         <v>128</v>
       </c>
@@ -6292,11 +6294,11 @@
       <c r="G55" s="9">
         <v>8</v>
       </c>
-      <c r="H55" s="64" t="s">
+      <c r="H55" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
       <c r="L55" s="28">
         <v>6</v>
       </c>
@@ -6335,10 +6337,10 @@
       <c r="B56" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="59"/>
+      <c r="D56" s="82"/>
       <c r="E56" s="2">
         <v>256</v>
       </c>
@@ -6348,11 +6350,11 @@
       <c r="G56" s="13">
         <v>1</v>
       </c>
-      <c r="H56" s="64">
+      <c r="H56" s="81">
         <v>11</v>
       </c>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
       <c r="L56" s="28">
         <v>7</v>
       </c>
@@ -6391,10 +6393,10 @@
       <c r="B57" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="59"/>
+      <c r="D57" s="82"/>
       <c r="E57" s="2">
         <v>512</v>
       </c>
@@ -6404,11 +6406,11 @@
       <c r="G57" s="2">
         <v>2</v>
       </c>
-      <c r="H57" s="64">
+      <c r="H57" s="81">
         <v>10</v>
       </c>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
       <c r="L57" s="9"/>
       <c r="P57" s="2">
         <v>0</v>
@@ -6436,10 +6438,10 @@
       <c r="B58" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="59"/>
+      <c r="D58" s="82"/>
       <c r="E58" s="2">
         <v>1024</v>
       </c>
@@ -6449,11 +6451,11 @@
       <c r="G58" s="2">
         <v>4</v>
       </c>
-      <c r="H58" s="64">
-        <v>1</v>
-      </c>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
+      <c r="H58" s="81">
+        <v>1</v>
+      </c>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
       <c r="L58" s="9"/>
       <c r="P58" s="2">
         <v>0</v>
@@ -6481,10 +6483,10 @@
       <c r="B59" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="D59" s="59"/>
+      <c r="D59" s="82"/>
       <c r="E59" s="2">
         <v>2048</v>
       </c>
@@ -6494,11 +6496,11 @@
       <c r="G59" s="2">
         <v>8</v>
       </c>
-      <c r="H59" s="64">
-        <v>0</v>
-      </c>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
+      <c r="H59" s="81">
+        <v>0</v>
+      </c>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
       <c r="L59" s="9"/>
       <c r="P59" s="2">
         <v>0</v>
@@ -6526,10 +6528,10 @@
       <c r="B60" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="D60" s="59"/>
+      <c r="D60" s="82"/>
       <c r="E60" s="2">
         <v>4096</v>
       </c>
@@ -6566,10 +6568,10 @@
       <c r="B61" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="D61" s="59"/>
+      <c r="D61" s="82"/>
       <c r="E61" s="2">
         <v>8192</v>
       </c>
@@ -7248,20 +7250,20 @@
       <c r="A86" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H86" s="64" t="s">
+      <c r="H86" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="82"/>
       <c r="K86" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="L86" s="68" t="s">
+      <c r="L86" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
+      <c r="M86" s="82"/>
+      <c r="N86" s="82"/>
+      <c r="O86" s="82"/>
       <c r="S86" s="28" t="s">
         <v>208</v>
       </c>
@@ -7467,10 +7469,10 @@
       </c>
     </row>
     <row r="91" spans="1:22" ht="14.25" customHeight="1">
-      <c r="B91" s="64" t="s">
+      <c r="B91" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="C91" s="59"/>
+      <c r="C91" s="82"/>
       <c r="G91" s="2" t="s">
         <v>234</v>
       </c>
@@ -8041,10 +8043,10 @@
         <v>314</v>
       </c>
       <c r="D140" s="2"/>
-      <c r="E140" s="64" t="s">
+      <c r="E140" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="F140" s="59"/>
+      <c r="F140" s="82"/>
       <c r="G140" s="13" t="s">
         <v>316</v>
       </c>
@@ -8056,10 +8058,10 @@
       <c r="A141" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E141" s="64" t="s">
+      <c r="E141" s="81" t="s">
         <v>318</v>
       </c>
-      <c r="F141" s="59"/>
+      <c r="F141" s="82"/>
       <c r="G141" s="13" t="s">
         <v>319</v>
       </c>
@@ -8071,10 +8073,10 @@
       <c r="A142" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="E142" s="64" t="s">
+      <c r="E142" s="81" t="s">
         <v>321</v>
       </c>
-      <c r="F142" s="59"/>
+      <c r="F142" s="82"/>
       <c r="G142" s="13" t="s">
         <v>319</v>
       </c>
@@ -8087,10 +8089,10 @@
         <v>322</v>
       </c>
       <c r="C143" s="41"/>
-      <c r="E143" s="64" t="s">
+      <c r="E143" s="81" t="s">
         <v>323</v>
       </c>
-      <c r="F143" s="59"/>
+      <c r="F143" s="82"/>
       <c r="G143" s="13" t="s">
         <v>324</v>
       </c>
@@ -8102,10 +8104,10 @@
       <c r="A144" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="E144" s="64" t="s">
+      <c r="E144" s="81" t="s">
         <v>326</v>
       </c>
-      <c r="F144" s="59"/>
+      <c r="F144" s="82"/>
       <c r="G144" s="13" t="s">
         <v>324</v>
       </c>
@@ -8117,10 +8119,10 @@
       <c r="A145" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="E145" s="64" t="s">
+      <c r="E145" s="81" t="s">
         <v>328</v>
       </c>
-      <c r="F145" s="59"/>
+      <c r="F145" s="82"/>
       <c r="G145" s="13" t="s">
         <v>329</v>
       </c>
@@ -8132,10 +8134,10 @@
       <c r="A146" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="E146" s="64" t="s">
+      <c r="E146" s="81" t="s">
         <v>331</v>
       </c>
-      <c r="F146" s="59"/>
+      <c r="F146" s="82"/>
       <c r="G146" s="13" t="s">
         <v>329</v>
       </c>
@@ -8148,10 +8150,10 @@
         <v>332</v>
       </c>
       <c r="C147" s="41"/>
-      <c r="E147" s="64" t="s">
+      <c r="E147" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="F147" s="59"/>
+      <c r="F147" s="82"/>
       <c r="G147" s="13" t="s">
         <v>334</v>
       </c>
@@ -8163,10 +8165,10 @@
       <c r="A148" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="E148" s="64" t="s">
+      <c r="E148" s="81" t="s">
         <v>336</v>
       </c>
-      <c r="F148" s="59"/>
+      <c r="F148" s="82"/>
       <c r="G148" s="13" t="s">
         <v>334</v>
       </c>
@@ -8178,10 +8180,10 @@
       <c r="A149" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="E149" s="64" t="s">
+      <c r="E149" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="F149" s="59"/>
+      <c r="F149" s="82"/>
       <c r="G149" s="13" t="s">
         <v>339</v>
       </c>
@@ -8193,10 +8195,10 @@
       <c r="A150" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="E150" s="64" t="s">
+      <c r="E150" s="81" t="s">
         <v>341</v>
       </c>
-      <c r="F150" s="59"/>
+      <c r="F150" s="82"/>
       <c r="G150" s="13" t="s">
         <v>339</v>
       </c>
@@ -8208,10 +8210,10 @@
       <c r="A151" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="E151" s="64" t="s">
+      <c r="E151" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="F151" s="59"/>
+      <c r="F151" s="82"/>
       <c r="G151" s="13" t="s">
         <v>344</v>
       </c>
@@ -8220,11 +8222,14 @@
       </c>
     </row>
     <row r="152" spans="1:20" ht="14.25" customHeight="1">
-      <c r="E152" s="68" t="s">
+      <c r="A152" t="s">
+        <v>603</v>
+      </c>
+      <c r="E152" s="83" t="s">
         <v>345</v>
       </c>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59"/>
+      <c r="F152" s="82"/>
+      <c r="G152" s="82"/>
     </row>
     <row r="153" spans="1:20" ht="14.25" customHeight="1">
       <c r="A153" s="2" t="s">
@@ -8237,23 +8242,23 @@
     <row r="157" spans="1:20" ht="14.25" customHeight="1"/>
     <row r="158" spans="1:20" ht="14.25" customHeight="1">
       <c r="B158" s="42"/>
-      <c r="C158" s="65" t="s">
+      <c r="C158" s="84" t="s">
         <v>347</v>
       </c>
-      <c r="D158" s="67"/>
+      <c r="D158" s="85"/>
       <c r="E158" s="43"/>
       <c r="F158" s="43"/>
       <c r="G158" s="43"/>
       <c r="H158" s="43"/>
-      <c r="I158" s="65"/>
-      <c r="J158" s="66"/>
+      <c r="I158" s="84"/>
+      <c r="J158" s="87"/>
       <c r="Q158" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="R158" s="65" t="s">
+      <c r="R158" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="S158" s="67"/>
+      <c r="S158" s="85"/>
       <c r="T158" s="44"/>
     </row>
     <row r="159" spans="1:20" ht="14.25" customHeight="1">
@@ -8280,12 +8285,12 @@
       <c r="E160" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F160" s="68" t="s">
+      <c r="F160" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="G160" s="59"/>
-      <c r="H160" s="59"/>
-      <c r="I160" s="59"/>
+      <c r="G160" s="82"/>
+      <c r="H160" s="82"/>
+      <c r="I160" s="82"/>
       <c r="J160" s="46"/>
       <c r="Q160" s="45">
         <v>1</v>
@@ -10477,35 +10482,11 @@
     <row r="1033" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="F160:I160"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="E145:F145"/>
     <mergeCell ref="E146:F146"/>
     <mergeCell ref="I158:J158"/>
@@ -10515,11 +10496,35 @@
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="E142:F142"/>
     <mergeCell ref="C61:D61"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="F160:I160"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E144:F144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
@@ -10543,289 +10548,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="119" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="118"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="130"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="116" t="s">
         <v>585</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="90"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="118"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="91"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="91"/>
+      <c r="A3" s="68"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="116" t="s">
         <v>581</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="87" t="s">
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="138" t="s">
         <v>580</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="83" t="s">
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="135" t="s">
         <v>582</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="78" t="s">
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136" t="s">
         <v>583</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79" t="s">
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="137" t="s">
         <v>584</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="110" t="s">
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="107" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="116" t="s">
         <v>588</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="84" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="131" t="s">
         <v>579</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="80" t="s">
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="132" t="s">
         <v>543</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="75" t="s">
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133" t="s">
         <v>544</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="72" t="s">
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="134" t="s">
         <v>545</v>
       </c>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="111"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="108"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="119" t="s">
         <v>590</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="85" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="66" t="s">
         <v>547</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="66" t="s">
         <v>548</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="L6" s="76" t="s">
+      <c r="L6" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="76" t="s">
+      <c r="N6" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="O6" s="76" t="s">
+      <c r="O6" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="73" t="s">
+      <c r="P6" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="Q6" s="73" t="s">
+      <c r="Q6" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="R6" s="73" t="s">
+      <c r="R6" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="73" t="s">
+      <c r="S6" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="T6" s="112"/>
+      <c r="T6" s="109"/>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="120" t="s">
         <v>589</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="86">
-        <v>0</v>
-      </c>
-      <c r="E7" s="86">
-        <v>0</v>
-      </c>
-      <c r="F7" s="86">
-        <v>0</v>
-      </c>
-      <c r="G7" s="86">
-        <v>0</v>
-      </c>
-      <c r="H7" s="82">
-        <v>0</v>
-      </c>
-      <c r="I7" s="82">
-        <v>0</v>
-      </c>
-      <c r="J7" s="82">
-        <v>0</v>
-      </c>
-      <c r="K7" s="82">
-        <v>0</v>
-      </c>
-      <c r="L7" s="77">
-        <v>0</v>
-      </c>
-      <c r="M7" s="77">
-        <v>0</v>
-      </c>
-      <c r="N7" s="77">
-        <v>0</v>
-      </c>
-      <c r="O7" s="77">
-        <v>0</v>
-      </c>
-      <c r="P7" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="74">
-        <v>0</v>
-      </c>
-      <c r="R7" s="74">
-        <v>0</v>
-      </c>
-      <c r="S7" s="74">
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="67">
+        <v>0</v>
+      </c>
+      <c r="E7" s="67">
+        <v>0</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0</v>
+      </c>
+      <c r="G7" s="67">
+        <v>0</v>
+      </c>
+      <c r="H7" s="65">
+        <v>0</v>
+      </c>
+      <c r="I7" s="65">
+        <v>0</v>
+      </c>
+      <c r="J7" s="65">
+        <v>0</v>
+      </c>
+      <c r="K7" s="65">
+        <v>0</v>
+      </c>
+      <c r="L7" s="63">
+        <v>0</v>
+      </c>
+      <c r="M7" s="63">
+        <v>0</v>
+      </c>
+      <c r="N7" s="63">
+        <v>0</v>
+      </c>
+      <c r="O7" s="63">
+        <v>0</v>
+      </c>
+      <c r="P7" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="61">
+        <v>0</v>
+      </c>
+      <c r="R7" s="61">
+        <v>0</v>
+      </c>
+      <c r="S7" s="61">
         <v>0</v>
       </c>
       <c r="T7" s="29">
         <v>0</v>
       </c>
-      <c r="U7" s="70"/>
+      <c r="U7" s="58"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="102"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="86">
-        <v>0</v>
-      </c>
-      <c r="E8" s="86">
-        <v>0</v>
-      </c>
-      <c r="F8" s="86">
-        <v>0</v>
-      </c>
-      <c r="G8" s="86">
-        <v>1</v>
-      </c>
-      <c r="H8" s="82">
-        <v>0</v>
-      </c>
-      <c r="I8" s="82">
-        <v>0</v>
-      </c>
-      <c r="J8" s="82">
-        <v>0</v>
-      </c>
-      <c r="K8" s="82">
-        <v>1</v>
-      </c>
-      <c r="L8" s="77">
-        <v>0</v>
-      </c>
-      <c r="M8" s="77">
-        <v>0</v>
-      </c>
-      <c r="N8" s="77">
-        <v>0</v>
-      </c>
-      <c r="O8" s="77">
-        <v>1</v>
-      </c>
-      <c r="P8" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="74">
-        <v>0</v>
-      </c>
-      <c r="R8" s="74">
-        <v>0</v>
-      </c>
-      <c r="S8" s="74">
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="67">
+        <v>0</v>
+      </c>
+      <c r="E8" s="67">
+        <v>0</v>
+      </c>
+      <c r="F8" s="67">
+        <v>0</v>
+      </c>
+      <c r="G8" s="67">
+        <v>1</v>
+      </c>
+      <c r="H8" s="65">
+        <v>0</v>
+      </c>
+      <c r="I8" s="65">
+        <v>0</v>
+      </c>
+      <c r="J8" s="65">
+        <v>0</v>
+      </c>
+      <c r="K8" s="65">
+        <v>1</v>
+      </c>
+      <c r="L8" s="63">
+        <v>0</v>
+      </c>
+      <c r="M8" s="63">
+        <v>0</v>
+      </c>
+      <c r="N8" s="63">
+        <v>0</v>
+      </c>
+      <c r="O8" s="63">
+        <v>1</v>
+      </c>
+      <c r="P8" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="61">
+        <v>0</v>
+      </c>
+      <c r="R8" s="61">
+        <v>0</v>
+      </c>
+      <c r="S8" s="61">
         <v>1</v>
       </c>
       <c r="T8" s="29">
@@ -10833,55 +10837,55 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="86">
-        <v>0</v>
-      </c>
-      <c r="E9" s="86">
-        <v>0</v>
-      </c>
-      <c r="F9" s="86">
-        <v>1</v>
-      </c>
-      <c r="G9" s="86">
-        <v>0</v>
-      </c>
-      <c r="H9" s="82">
-        <v>0</v>
-      </c>
-      <c r="I9" s="82">
-        <v>0</v>
-      </c>
-      <c r="J9" s="82">
-        <v>1</v>
-      </c>
-      <c r="K9" s="82">
-        <v>0</v>
-      </c>
-      <c r="L9" s="77">
-        <v>0</v>
-      </c>
-      <c r="M9" s="77">
-        <v>0</v>
-      </c>
-      <c r="N9" s="77">
-        <v>1</v>
-      </c>
-      <c r="O9" s="77">
-        <v>0</v>
-      </c>
-      <c r="P9" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="74">
-        <v>0</v>
-      </c>
-      <c r="R9" s="74">
-        <v>1</v>
-      </c>
-      <c r="S9" s="74">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="67">
+        <v>0</v>
+      </c>
+      <c r="E9" s="67">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67">
+        <v>1</v>
+      </c>
+      <c r="G9" s="67">
+        <v>0</v>
+      </c>
+      <c r="H9" s="65">
+        <v>0</v>
+      </c>
+      <c r="I9" s="65">
+        <v>0</v>
+      </c>
+      <c r="J9" s="65">
+        <v>1</v>
+      </c>
+      <c r="K9" s="65">
+        <v>0</v>
+      </c>
+      <c r="L9" s="63">
+        <v>0</v>
+      </c>
+      <c r="M9" s="63">
+        <v>0</v>
+      </c>
+      <c r="N9" s="63">
+        <v>1</v>
+      </c>
+      <c r="O9" s="63">
+        <v>0</v>
+      </c>
+      <c r="P9" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="61">
+        <v>0</v>
+      </c>
+      <c r="R9" s="61">
+        <v>1</v>
+      </c>
+      <c r="S9" s="61">
         <v>0</v>
       </c>
       <c r="T9" s="29">
@@ -10889,55 +10893,55 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="86">
-        <v>0</v>
-      </c>
-      <c r="E10" s="86">
-        <v>0</v>
-      </c>
-      <c r="F10" s="86">
-        <v>1</v>
-      </c>
-      <c r="G10" s="86">
-        <v>1</v>
-      </c>
-      <c r="H10" s="82">
-        <v>0</v>
-      </c>
-      <c r="I10" s="82">
-        <v>0</v>
-      </c>
-      <c r="J10" s="82">
-        <v>1</v>
-      </c>
-      <c r="K10" s="82">
-        <v>1</v>
-      </c>
-      <c r="L10" s="77">
-        <v>0</v>
-      </c>
-      <c r="M10" s="77">
-        <v>0</v>
-      </c>
-      <c r="N10" s="77">
-        <v>1</v>
-      </c>
-      <c r="O10" s="77">
-        <v>1</v>
-      </c>
-      <c r="P10" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="74">
-        <v>0</v>
-      </c>
-      <c r="R10" s="74">
-        <v>1</v>
-      </c>
-      <c r="S10" s="74">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="67">
+        <v>0</v>
+      </c>
+      <c r="E10" s="67">
+        <v>0</v>
+      </c>
+      <c r="F10" s="67">
+        <v>1</v>
+      </c>
+      <c r="G10" s="67">
+        <v>1</v>
+      </c>
+      <c r="H10" s="65">
+        <v>0</v>
+      </c>
+      <c r="I10" s="65">
+        <v>0</v>
+      </c>
+      <c r="J10" s="65">
+        <v>1</v>
+      </c>
+      <c r="K10" s="65">
+        <v>1</v>
+      </c>
+      <c r="L10" s="63">
+        <v>0</v>
+      </c>
+      <c r="M10" s="63">
+        <v>0</v>
+      </c>
+      <c r="N10" s="63">
+        <v>1</v>
+      </c>
+      <c r="O10" s="63">
+        <v>1</v>
+      </c>
+      <c r="P10" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="61">
+        <v>0</v>
+      </c>
+      <c r="R10" s="61">
+        <v>1</v>
+      </c>
+      <c r="S10" s="61">
         <v>1</v>
       </c>
       <c r="T10" s="29">
@@ -10945,55 +10949,55 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="86">
-        <v>0</v>
-      </c>
-      <c r="E11" s="86">
-        <v>1</v>
-      </c>
-      <c r="F11" s="86">
-        <v>0</v>
-      </c>
-      <c r="G11" s="86">
-        <v>0</v>
-      </c>
-      <c r="H11" s="82">
-        <v>0</v>
-      </c>
-      <c r="I11" s="82">
-        <v>1</v>
-      </c>
-      <c r="J11" s="82">
-        <v>0</v>
-      </c>
-      <c r="K11" s="82">
-        <v>0</v>
-      </c>
-      <c r="L11" s="77">
-        <v>0</v>
-      </c>
-      <c r="M11" s="77">
-        <v>1</v>
-      </c>
-      <c r="N11" s="77">
-        <v>0</v>
-      </c>
-      <c r="O11" s="77">
-        <v>0</v>
-      </c>
-      <c r="P11" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="74">
-        <v>1</v>
-      </c>
-      <c r="R11" s="74">
-        <v>0</v>
-      </c>
-      <c r="S11" s="74">
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="67">
+        <v>0</v>
+      </c>
+      <c r="E11" s="67">
+        <v>1</v>
+      </c>
+      <c r="F11" s="67">
+        <v>0</v>
+      </c>
+      <c r="G11" s="67">
+        <v>0</v>
+      </c>
+      <c r="H11" s="65">
+        <v>0</v>
+      </c>
+      <c r="I11" s="65">
+        <v>1</v>
+      </c>
+      <c r="J11" s="65">
+        <v>0</v>
+      </c>
+      <c r="K11" s="65">
+        <v>0</v>
+      </c>
+      <c r="L11" s="63">
+        <v>0</v>
+      </c>
+      <c r="M11" s="63">
+        <v>1</v>
+      </c>
+      <c r="N11" s="63">
+        <v>0</v>
+      </c>
+      <c r="O11" s="63">
+        <v>0</v>
+      </c>
+      <c r="P11" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="61">
+        <v>1</v>
+      </c>
+      <c r="R11" s="61">
+        <v>0</v>
+      </c>
+      <c r="S11" s="61">
         <v>0</v>
       </c>
       <c r="T11" s="29">
@@ -11001,55 +11005,55 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="102"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="86">
-        <v>0</v>
-      </c>
-      <c r="E12" s="86">
-        <v>1</v>
-      </c>
-      <c r="F12" s="86">
-        <v>0</v>
-      </c>
-      <c r="G12" s="86">
-        <v>1</v>
-      </c>
-      <c r="H12" s="82">
-        <v>0</v>
-      </c>
-      <c r="I12" s="82">
-        <v>1</v>
-      </c>
-      <c r="J12" s="82">
-        <v>0</v>
-      </c>
-      <c r="K12" s="82">
-        <v>1</v>
-      </c>
-      <c r="L12" s="77">
-        <v>0</v>
-      </c>
-      <c r="M12" s="77">
-        <v>1</v>
-      </c>
-      <c r="N12" s="77">
-        <v>0</v>
-      </c>
-      <c r="O12" s="77">
-        <v>1</v>
-      </c>
-      <c r="P12" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="74">
-        <v>1</v>
-      </c>
-      <c r="R12" s="74">
-        <v>0</v>
-      </c>
-      <c r="S12" s="74">
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="67">
+        <v>0</v>
+      </c>
+      <c r="E12" s="67">
+        <v>1</v>
+      </c>
+      <c r="F12" s="67">
+        <v>0</v>
+      </c>
+      <c r="G12" s="67">
+        <v>1</v>
+      </c>
+      <c r="H12" s="65">
+        <v>0</v>
+      </c>
+      <c r="I12" s="65">
+        <v>1</v>
+      </c>
+      <c r="J12" s="65">
+        <v>0</v>
+      </c>
+      <c r="K12" s="65">
+        <v>1</v>
+      </c>
+      <c r="L12" s="63">
+        <v>0</v>
+      </c>
+      <c r="M12" s="63">
+        <v>1</v>
+      </c>
+      <c r="N12" s="63">
+        <v>0</v>
+      </c>
+      <c r="O12" s="63">
+        <v>1</v>
+      </c>
+      <c r="P12" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="61">
+        <v>1</v>
+      </c>
+      <c r="R12" s="61">
+        <v>0</v>
+      </c>
+      <c r="S12" s="61">
         <v>1</v>
       </c>
       <c r="T12" s="29">
@@ -11057,55 +11061,55 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="86">
-        <v>0</v>
-      </c>
-      <c r="E13" s="86">
-        <v>1</v>
-      </c>
-      <c r="F13" s="86">
-        <v>1</v>
-      </c>
-      <c r="G13" s="86">
-        <v>0</v>
-      </c>
-      <c r="H13" s="82">
-        <v>0</v>
-      </c>
-      <c r="I13" s="82">
-        <v>1</v>
-      </c>
-      <c r="J13" s="82">
-        <v>1</v>
-      </c>
-      <c r="K13" s="82">
-        <v>0</v>
-      </c>
-      <c r="L13" s="77">
-        <v>0</v>
-      </c>
-      <c r="M13" s="77">
-        <v>1</v>
-      </c>
-      <c r="N13" s="77">
-        <v>1</v>
-      </c>
-      <c r="O13" s="77">
-        <v>0</v>
-      </c>
-      <c r="P13" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="74">
-        <v>1</v>
-      </c>
-      <c r="R13" s="74">
-        <v>1</v>
-      </c>
-      <c r="S13" s="74">
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="67">
+        <v>0</v>
+      </c>
+      <c r="E13" s="67">
+        <v>1</v>
+      </c>
+      <c r="F13" s="67">
+        <v>1</v>
+      </c>
+      <c r="G13" s="67">
+        <v>0</v>
+      </c>
+      <c r="H13" s="65">
+        <v>0</v>
+      </c>
+      <c r="I13" s="65">
+        <v>1</v>
+      </c>
+      <c r="J13" s="65">
+        <v>1</v>
+      </c>
+      <c r="K13" s="65">
+        <v>0</v>
+      </c>
+      <c r="L13" s="63">
+        <v>0</v>
+      </c>
+      <c r="M13" s="63">
+        <v>1</v>
+      </c>
+      <c r="N13" s="63">
+        <v>1</v>
+      </c>
+      <c r="O13" s="63">
+        <v>0</v>
+      </c>
+      <c r="P13" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="61">
+        <v>1</v>
+      </c>
+      <c r="R13" s="61">
+        <v>1</v>
+      </c>
+      <c r="S13" s="61">
         <v>0</v>
       </c>
       <c r="T13" s="29">
@@ -11113,55 +11117,55 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="102"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="86">
-        <v>0</v>
-      </c>
-      <c r="E14" s="86">
-        <v>1</v>
-      </c>
-      <c r="F14" s="86">
-        <v>1</v>
-      </c>
-      <c r="G14" s="86">
-        <v>1</v>
-      </c>
-      <c r="H14" s="82">
-        <v>0</v>
-      </c>
-      <c r="I14" s="82">
-        <v>1</v>
-      </c>
-      <c r="J14" s="82">
-        <v>1</v>
-      </c>
-      <c r="K14" s="82">
-        <v>1</v>
-      </c>
-      <c r="L14" s="77">
-        <v>0</v>
-      </c>
-      <c r="M14" s="77">
-        <v>1</v>
-      </c>
-      <c r="N14" s="77">
-        <v>1</v>
-      </c>
-      <c r="O14" s="77">
-        <v>1</v>
-      </c>
-      <c r="P14" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="74">
-        <v>1</v>
-      </c>
-      <c r="R14" s="74">
-        <v>1</v>
-      </c>
-      <c r="S14" s="74">
+      <c r="A14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="67">
+        <v>0</v>
+      </c>
+      <c r="E14" s="67">
+        <v>1</v>
+      </c>
+      <c r="F14" s="67">
+        <v>1</v>
+      </c>
+      <c r="G14" s="67">
+        <v>1</v>
+      </c>
+      <c r="H14" s="65">
+        <v>0</v>
+      </c>
+      <c r="I14" s="65">
+        <v>1</v>
+      </c>
+      <c r="J14" s="65">
+        <v>1</v>
+      </c>
+      <c r="K14" s="65">
+        <v>1</v>
+      </c>
+      <c r="L14" s="63">
+        <v>0</v>
+      </c>
+      <c r="M14" s="63">
+        <v>1</v>
+      </c>
+      <c r="N14" s="63">
+        <v>1</v>
+      </c>
+      <c r="O14" s="63">
+        <v>1</v>
+      </c>
+      <c r="P14" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="61">
+        <v>1</v>
+      </c>
+      <c r="R14" s="61">
+        <v>1</v>
+      </c>
+      <c r="S14" s="61">
         <v>1</v>
       </c>
       <c r="T14" s="29">
@@ -11169,55 +11173,55 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="102"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="86">
-        <v>1</v>
-      </c>
-      <c r="E15" s="86">
-        <v>0</v>
-      </c>
-      <c r="F15" s="86">
-        <v>0</v>
-      </c>
-      <c r="G15" s="86">
-        <v>0</v>
-      </c>
-      <c r="H15" s="82">
-        <v>1</v>
-      </c>
-      <c r="I15" s="82">
-        <v>0</v>
-      </c>
-      <c r="J15" s="82">
-        <v>0</v>
-      </c>
-      <c r="K15" s="82">
-        <v>0</v>
-      </c>
-      <c r="L15" s="77">
-        <v>1</v>
-      </c>
-      <c r="M15" s="77">
-        <v>0</v>
-      </c>
-      <c r="N15" s="77">
-        <v>0</v>
-      </c>
-      <c r="O15" s="77">
-        <v>0</v>
-      </c>
-      <c r="P15" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="74">
-        <v>0</v>
-      </c>
-      <c r="R15" s="74">
-        <v>0</v>
-      </c>
-      <c r="S15" s="74">
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="67">
+        <v>1</v>
+      </c>
+      <c r="E15" s="67">
+        <v>0</v>
+      </c>
+      <c r="F15" s="67">
+        <v>0</v>
+      </c>
+      <c r="G15" s="67">
+        <v>0</v>
+      </c>
+      <c r="H15" s="65">
+        <v>1</v>
+      </c>
+      <c r="I15" s="65">
+        <v>0</v>
+      </c>
+      <c r="J15" s="65">
+        <v>0</v>
+      </c>
+      <c r="K15" s="65">
+        <v>0</v>
+      </c>
+      <c r="L15" s="63">
+        <v>1</v>
+      </c>
+      <c r="M15" s="63">
+        <v>0</v>
+      </c>
+      <c r="N15" s="63">
+        <v>0</v>
+      </c>
+      <c r="O15" s="63">
+        <v>0</v>
+      </c>
+      <c r="P15" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="61">
+        <v>0</v>
+      </c>
+      <c r="R15" s="61">
+        <v>0</v>
+      </c>
+      <c r="S15" s="61">
         <v>0</v>
       </c>
       <c r="T15" s="29">
@@ -11225,55 +11229,55 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="86">
-        <v>1</v>
-      </c>
-      <c r="E16" s="86">
-        <v>0</v>
-      </c>
-      <c r="F16" s="86">
-        <v>0</v>
-      </c>
-      <c r="G16" s="86">
-        <v>1</v>
-      </c>
-      <c r="H16" s="82">
-        <v>1</v>
-      </c>
-      <c r="I16" s="82">
-        <v>0</v>
-      </c>
-      <c r="J16" s="82">
-        <v>0</v>
-      </c>
-      <c r="K16" s="82">
-        <v>1</v>
-      </c>
-      <c r="L16" s="77">
-        <v>1</v>
-      </c>
-      <c r="M16" s="77">
-        <v>0</v>
-      </c>
-      <c r="N16" s="77">
-        <v>0</v>
-      </c>
-      <c r="O16" s="77">
-        <v>1</v>
-      </c>
-      <c r="P16" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="74">
-        <v>0</v>
-      </c>
-      <c r="R16" s="74">
-        <v>0</v>
-      </c>
-      <c r="S16" s="74">
+      <c r="A16" s="123"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="67">
+        <v>1</v>
+      </c>
+      <c r="E16" s="67">
+        <v>0</v>
+      </c>
+      <c r="F16" s="67">
+        <v>0</v>
+      </c>
+      <c r="G16" s="67">
+        <v>1</v>
+      </c>
+      <c r="H16" s="65">
+        <v>1</v>
+      </c>
+      <c r="I16" s="65">
+        <v>0</v>
+      </c>
+      <c r="J16" s="65">
+        <v>0</v>
+      </c>
+      <c r="K16" s="65">
+        <v>1</v>
+      </c>
+      <c r="L16" s="63">
+        <v>1</v>
+      </c>
+      <c r="M16" s="63">
+        <v>0</v>
+      </c>
+      <c r="N16" s="63">
+        <v>0</v>
+      </c>
+      <c r="O16" s="63">
+        <v>1</v>
+      </c>
+      <c r="P16" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="61">
+        <v>0</v>
+      </c>
+      <c r="R16" s="61">
+        <v>0</v>
+      </c>
+      <c r="S16" s="61">
         <v>1</v>
       </c>
       <c r="T16" s="29">
@@ -11281,55 +11285,55 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="102"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="86">
-        <v>1</v>
-      </c>
-      <c r="E17" s="86">
-        <v>0</v>
-      </c>
-      <c r="F17" s="86">
-        <v>1</v>
-      </c>
-      <c r="G17" s="86">
-        <v>0</v>
-      </c>
-      <c r="H17" s="82">
-        <v>1</v>
-      </c>
-      <c r="I17" s="82">
-        <v>0</v>
-      </c>
-      <c r="J17" s="82">
-        <v>1</v>
-      </c>
-      <c r="K17" s="82">
-        <v>0</v>
-      </c>
-      <c r="L17" s="77">
-        <v>1</v>
-      </c>
-      <c r="M17" s="77">
-        <v>0</v>
-      </c>
-      <c r="N17" s="77">
-        <v>1</v>
-      </c>
-      <c r="O17" s="77">
-        <v>0</v>
-      </c>
-      <c r="P17" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="74">
-        <v>0</v>
-      </c>
-      <c r="R17" s="74">
-        <v>1</v>
-      </c>
-      <c r="S17" s="74">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="67">
+        <v>1</v>
+      </c>
+      <c r="E17" s="67">
+        <v>0</v>
+      </c>
+      <c r="F17" s="67">
+        <v>1</v>
+      </c>
+      <c r="G17" s="67">
+        <v>0</v>
+      </c>
+      <c r="H17" s="65">
+        <v>1</v>
+      </c>
+      <c r="I17" s="65">
+        <v>0</v>
+      </c>
+      <c r="J17" s="65">
+        <v>1</v>
+      </c>
+      <c r="K17" s="65">
+        <v>0</v>
+      </c>
+      <c r="L17" s="63">
+        <v>1</v>
+      </c>
+      <c r="M17" s="63">
+        <v>0</v>
+      </c>
+      <c r="N17" s="63">
+        <v>1</v>
+      </c>
+      <c r="O17" s="63">
+        <v>0</v>
+      </c>
+      <c r="P17" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="61">
+        <v>0</v>
+      </c>
+      <c r="R17" s="61">
+        <v>1</v>
+      </c>
+      <c r="S17" s="61">
         <v>0</v>
       </c>
       <c r="T17" s="29">
@@ -11337,55 +11341,55 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="102"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="86">
-        <v>1</v>
-      </c>
-      <c r="E18" s="86">
-        <v>0</v>
-      </c>
-      <c r="F18" s="86">
-        <v>1</v>
-      </c>
-      <c r="G18" s="86">
-        <v>1</v>
-      </c>
-      <c r="H18" s="82">
-        <v>1</v>
-      </c>
-      <c r="I18" s="82">
-        <v>0</v>
-      </c>
-      <c r="J18" s="82">
-        <v>1</v>
-      </c>
-      <c r="K18" s="82">
-        <v>1</v>
-      </c>
-      <c r="L18" s="77">
-        <v>1</v>
-      </c>
-      <c r="M18" s="77">
-        <v>0</v>
-      </c>
-      <c r="N18" s="77">
-        <v>1</v>
-      </c>
-      <c r="O18" s="77">
-        <v>1</v>
-      </c>
-      <c r="P18" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="74">
-        <v>0</v>
-      </c>
-      <c r="R18" s="74">
-        <v>1</v>
-      </c>
-      <c r="S18" s="74">
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="67">
+        <v>1</v>
+      </c>
+      <c r="E18" s="67">
+        <v>0</v>
+      </c>
+      <c r="F18" s="67">
+        <v>1</v>
+      </c>
+      <c r="G18" s="67">
+        <v>1</v>
+      </c>
+      <c r="H18" s="65">
+        <v>1</v>
+      </c>
+      <c r="I18" s="65">
+        <v>0</v>
+      </c>
+      <c r="J18" s="65">
+        <v>1</v>
+      </c>
+      <c r="K18" s="65">
+        <v>1</v>
+      </c>
+      <c r="L18" s="63">
+        <v>1</v>
+      </c>
+      <c r="M18" s="63">
+        <v>0</v>
+      </c>
+      <c r="N18" s="63">
+        <v>1</v>
+      </c>
+      <c r="O18" s="63">
+        <v>1</v>
+      </c>
+      <c r="P18" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="61">
+        <v>0</v>
+      </c>
+      <c r="R18" s="61">
+        <v>1</v>
+      </c>
+      <c r="S18" s="61">
         <v>1</v>
       </c>
       <c r="T18" s="29">
@@ -11393,55 +11397,55 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="102"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="86">
-        <v>1</v>
-      </c>
-      <c r="E19" s="86">
-        <v>1</v>
-      </c>
-      <c r="F19" s="86">
-        <v>0</v>
-      </c>
-      <c r="G19" s="86">
-        <v>0</v>
-      </c>
-      <c r="H19" s="82">
-        <v>1</v>
-      </c>
-      <c r="I19" s="82">
-        <v>1</v>
-      </c>
-      <c r="J19" s="82">
-        <v>0</v>
-      </c>
-      <c r="K19" s="82">
-        <v>0</v>
-      </c>
-      <c r="L19" s="77">
-        <v>1</v>
-      </c>
-      <c r="M19" s="77">
-        <v>1</v>
-      </c>
-      <c r="N19" s="77">
-        <v>0</v>
-      </c>
-      <c r="O19" s="77">
-        <v>0</v>
-      </c>
-      <c r="P19" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="74">
-        <v>1</v>
-      </c>
-      <c r="R19" s="74">
-        <v>0</v>
-      </c>
-      <c r="S19" s="74">
+      <c r="A19" s="123"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="67">
+        <v>1</v>
+      </c>
+      <c r="E19" s="67">
+        <v>1</v>
+      </c>
+      <c r="F19" s="67">
+        <v>0</v>
+      </c>
+      <c r="G19" s="67">
+        <v>0</v>
+      </c>
+      <c r="H19" s="65">
+        <v>1</v>
+      </c>
+      <c r="I19" s="65">
+        <v>1</v>
+      </c>
+      <c r="J19" s="65">
+        <v>0</v>
+      </c>
+      <c r="K19" s="65">
+        <v>0</v>
+      </c>
+      <c r="L19" s="63">
+        <v>1</v>
+      </c>
+      <c r="M19" s="63">
+        <v>1</v>
+      </c>
+      <c r="N19" s="63">
+        <v>0</v>
+      </c>
+      <c r="O19" s="63">
+        <v>0</v>
+      </c>
+      <c r="P19" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="61">
+        <v>1</v>
+      </c>
+      <c r="R19" s="61">
+        <v>0</v>
+      </c>
+      <c r="S19" s="61">
         <v>0</v>
       </c>
       <c r="T19" s="29">
@@ -11449,55 +11453,55 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="102"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="86">
-        <v>1</v>
-      </c>
-      <c r="E20" s="86">
-        <v>1</v>
-      </c>
-      <c r="F20" s="86">
-        <v>0</v>
-      </c>
-      <c r="G20" s="86">
-        <v>1</v>
-      </c>
-      <c r="H20" s="82">
-        <v>1</v>
-      </c>
-      <c r="I20" s="82">
-        <v>1</v>
-      </c>
-      <c r="J20" s="82">
-        <v>0</v>
-      </c>
-      <c r="K20" s="82">
-        <v>1</v>
-      </c>
-      <c r="L20" s="77">
-        <v>1</v>
-      </c>
-      <c r="M20" s="77">
-        <v>1</v>
-      </c>
-      <c r="N20" s="77">
-        <v>0</v>
-      </c>
-      <c r="O20" s="77">
-        <v>1</v>
-      </c>
-      <c r="P20" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="74">
-        <v>1</v>
-      </c>
-      <c r="R20" s="74">
-        <v>0</v>
-      </c>
-      <c r="S20" s="74">
+      <c r="A20" s="123"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="67">
+        <v>1</v>
+      </c>
+      <c r="E20" s="67">
+        <v>1</v>
+      </c>
+      <c r="F20" s="67">
+        <v>0</v>
+      </c>
+      <c r="G20" s="67">
+        <v>1</v>
+      </c>
+      <c r="H20" s="65">
+        <v>1</v>
+      </c>
+      <c r="I20" s="65">
+        <v>1</v>
+      </c>
+      <c r="J20" s="65">
+        <v>0</v>
+      </c>
+      <c r="K20" s="65">
+        <v>1</v>
+      </c>
+      <c r="L20" s="63">
+        <v>1</v>
+      </c>
+      <c r="M20" s="63">
+        <v>1</v>
+      </c>
+      <c r="N20" s="63">
+        <v>0</v>
+      </c>
+      <c r="O20" s="63">
+        <v>1</v>
+      </c>
+      <c r="P20" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="61">
+        <v>1</v>
+      </c>
+      <c r="R20" s="61">
+        <v>0</v>
+      </c>
+      <c r="S20" s="61">
         <v>1</v>
       </c>
       <c r="T20" s="29">
@@ -11505,383 +11509,364 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="102"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="86">
-        <v>1</v>
-      </c>
-      <c r="E21" s="86">
-        <v>1</v>
-      </c>
-      <c r="F21" s="86">
-        <v>1</v>
-      </c>
-      <c r="G21" s="86">
-        <v>0</v>
-      </c>
-      <c r="H21" s="82">
-        <v>1</v>
-      </c>
-      <c r="I21" s="82">
-        <v>1</v>
-      </c>
-      <c r="J21" s="82">
-        <v>1</v>
-      </c>
-      <c r="K21" s="82">
-        <v>0</v>
-      </c>
-      <c r="L21" s="77">
-        <v>1</v>
-      </c>
-      <c r="M21" s="77">
-        <v>1</v>
-      </c>
-      <c r="N21" s="77">
-        <v>1</v>
-      </c>
-      <c r="O21" s="77">
-        <v>0</v>
-      </c>
-      <c r="P21" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="74">
-        <v>1</v>
-      </c>
-      <c r="R21" s="74">
-        <v>1</v>
-      </c>
-      <c r="S21" s="74">
+      <c r="A21" s="123"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="67">
+        <v>1</v>
+      </c>
+      <c r="E21" s="67">
+        <v>1</v>
+      </c>
+      <c r="F21" s="67">
+        <v>1</v>
+      </c>
+      <c r="G21" s="67">
+        <v>0</v>
+      </c>
+      <c r="H21" s="65">
+        <v>1</v>
+      </c>
+      <c r="I21" s="65">
+        <v>1</v>
+      </c>
+      <c r="J21" s="65">
+        <v>1</v>
+      </c>
+      <c r="K21" s="65">
+        <v>0</v>
+      </c>
+      <c r="L21" s="63">
+        <v>1</v>
+      </c>
+      <c r="M21" s="63">
+        <v>1</v>
+      </c>
+      <c r="N21" s="63">
+        <v>1</v>
+      </c>
+      <c r="O21" s="63">
+        <v>0</v>
+      </c>
+      <c r="P21" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="61">
+        <v>1</v>
+      </c>
+      <c r="R21" s="61">
+        <v>1</v>
+      </c>
+      <c r="S21" s="61">
         <v>0</v>
       </c>
       <c r="T21" s="29">
         <v>14</v>
       </c>
-      <c r="V21" s="108"/>
+      <c r="V21" s="69"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="86">
-        <v>1</v>
-      </c>
-      <c r="E22" s="86">
-        <v>1</v>
-      </c>
-      <c r="F22" s="86">
-        <v>1</v>
-      </c>
-      <c r="G22" s="86">
-        <v>1</v>
-      </c>
-      <c r="H22" s="82">
-        <v>1</v>
-      </c>
-      <c r="I22" s="82">
-        <v>1</v>
-      </c>
-      <c r="J22" s="82">
-        <v>1</v>
-      </c>
-      <c r="K22" s="82">
-        <v>1</v>
-      </c>
-      <c r="L22" s="77">
-        <v>1</v>
-      </c>
-      <c r="M22" s="77">
-        <v>1</v>
-      </c>
-      <c r="N22" s="77">
-        <v>1</v>
-      </c>
-      <c r="O22" s="77">
-        <v>1</v>
-      </c>
-      <c r="P22" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="74">
-        <v>1</v>
-      </c>
-      <c r="R22" s="74">
-        <v>1</v>
-      </c>
-      <c r="S22" s="74">
+      <c r="A22" s="126"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="67">
+        <v>1</v>
+      </c>
+      <c r="E22" s="67">
+        <v>1</v>
+      </c>
+      <c r="F22" s="67">
+        <v>1</v>
+      </c>
+      <c r="G22" s="67">
+        <v>1</v>
+      </c>
+      <c r="H22" s="65">
+        <v>1</v>
+      </c>
+      <c r="I22" s="65">
+        <v>1</v>
+      </c>
+      <c r="J22" s="65">
+        <v>1</v>
+      </c>
+      <c r="K22" s="65">
+        <v>1</v>
+      </c>
+      <c r="L22" s="63">
+        <v>1</v>
+      </c>
+      <c r="M22" s="63">
+        <v>1</v>
+      </c>
+      <c r="N22" s="63">
+        <v>1</v>
+      </c>
+      <c r="O22" s="63">
+        <v>1</v>
+      </c>
+      <c r="P22" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="61">
+        <v>1</v>
+      </c>
+      <c r="R22" s="61">
+        <v>1</v>
+      </c>
+      <c r="S22" s="61">
         <v>1</v>
       </c>
       <c r="T22" s="29">
         <v>15</v>
       </c>
-      <c r="W22" s="108"/>
+      <c r="W22" s="69"/>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="106" t="s">
         <v>592</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="70" t="s">
         <v>593</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="70" t="s">
         <v>591</v>
       </c>
-      <c r="D24" s="71">
-        <v>0</v>
-      </c>
-      <c r="E24" s="71">
-        <v>1</v>
-      </c>
-      <c r="F24" s="71">
-        <v>1</v>
-      </c>
-      <c r="G24" s="71">
-        <v>0</v>
-      </c>
-      <c r="H24" s="71">
-        <v>0</v>
-      </c>
-      <c r="I24" s="71">
-        <v>0</v>
-      </c>
-      <c r="J24" s="71">
-        <v>1</v>
-      </c>
-      <c r="K24" s="71">
-        <v>0</v>
-      </c>
-      <c r="L24" s="71">
-        <v>1</v>
-      </c>
-      <c r="M24" s="71">
-        <v>0</v>
-      </c>
-      <c r="N24" s="71">
-        <v>1</v>
-      </c>
-      <c r="O24" s="71">
-        <v>0</v>
-      </c>
-      <c r="P24" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="71">
-        <v>1</v>
-      </c>
-      <c r="R24" s="71">
-        <v>1</v>
-      </c>
-      <c r="S24" s="71">
+      <c r="D24" s="59">
+        <v>0</v>
+      </c>
+      <c r="E24" s="59">
+        <v>1</v>
+      </c>
+      <c r="F24" s="59">
+        <v>1</v>
+      </c>
+      <c r="G24" s="59">
+        <v>0</v>
+      </c>
+      <c r="H24" s="59">
+        <v>0</v>
+      </c>
+      <c r="I24" s="59">
+        <v>0</v>
+      </c>
+      <c r="J24" s="59">
+        <v>1</v>
+      </c>
+      <c r="K24" s="59">
+        <v>0</v>
+      </c>
+      <c r="L24" s="59">
+        <v>1</v>
+      </c>
+      <c r="M24" s="59">
+        <v>0</v>
+      </c>
+      <c r="N24" s="59">
+        <v>1</v>
+      </c>
+      <c r="O24" s="59">
+        <v>0</v>
+      </c>
+      <c r="P24" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="59">
+        <v>1</v>
+      </c>
+      <c r="R24" s="59">
+        <v>1</v>
+      </c>
+      <c r="S24" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="116" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="112" t="s">
         <v>594</v>
       </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="115"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1">
-      <c r="P26" s="113"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="113" t="s">
         <v>587</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="92" t="s">
         <v>543</v>
       </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="97" t="s">
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95" t="s">
         <v>545</v>
       </c>
-      <c r="N27" s="140"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="140"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="140"/>
-      <c r="U27" s="140"/>
-      <c r="V27" s="140"/>
-      <c r="W27" s="140"/>
-      <c r="X27" s="141"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="97"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="92" t="s">
         <v>542</v>
       </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97" t="s">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="140"/>
-      <c r="S28" s="140"/>
-      <c r="T28" s="140"/>
-      <c r="U28" s="140"/>
-      <c r="V28" s="140"/>
-      <c r="W28" s="140"/>
-      <c r="X28" s="141"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="97"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="139"/>
-      <c r="Q29" s="139"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="139"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="133" t="s">
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="133" t="s">
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="100" t="s">
         <v>284</v>
       </c>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="133" t="s">
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="133" t="s">
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="100" t="s">
         <v>286</v>
       </c>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="133" t="s">
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="135"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="102"/>
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="136"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="137"/>
-      <c r="O31" s="137"/>
-      <c r="P31" s="138"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="137"/>
-      <c r="S31" s="137"/>
-      <c r="T31" s="138"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="137"/>
-      <c r="W31" s="137"/>
-      <c r="X31" s="138"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="M27:X27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:X28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="M30:P31"/>
-    <mergeCell ref="Q30:T31"/>
-    <mergeCell ref="U30:X31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="C25:S25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C22"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="D5:G5"/>
@@ -11893,6 +11878,25 @@
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:G4"/>
+    <mergeCell ref="U30:X31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="C25:S25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C22"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="I30:L31"/>
+    <mergeCell ref="M30:P31"/>
+    <mergeCell ref="Q30:T31"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="M27:X27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:X28"/>
+    <mergeCell ref="A29:L29"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11918,387 +11922,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="119" t="s">
         <v>600</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="118"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="130"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="119" t="s">
         <v>602</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="118"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="130"/>
     </row>
     <row r="3" spans="1:29"/>
     <row r="4" spans="1:29">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="116" t="s">
         <v>581</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="130" t="s">
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="139" t="s">
         <v>595</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="116" t="s">
         <v>596</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="127" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="141" t="s">
         <v>554</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="124" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="142" t="s">
         <v>240</v>
       </c>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="122" t="s">
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="143" t="s">
         <v>236</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="80" t="s">
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="132" t="s">
         <v>234</v>
       </c>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="75" t="s">
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="133" t="s">
         <v>231</v>
       </c>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="72" t="s">
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="134" t="s">
         <v>226</v>
       </c>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="110" t="s">
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="107" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="116" t="s">
         <v>597</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="128" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="77" t="s">
         <v>555</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="77" t="s">
         <v>556</v>
       </c>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="77" t="s">
         <v>557</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="77" t="s">
         <v>558</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="75" t="s">
         <v>559</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="75" t="s">
         <v>560</v>
       </c>
-      <c r="J6" s="125" t="s">
+      <c r="J6" s="75" t="s">
         <v>561</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="75" t="s">
         <v>562</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="M6" s="85" t="s">
+      <c r="M6" s="66" t="s">
         <v>564</v>
       </c>
-      <c r="N6" s="85" t="s">
+      <c r="N6" s="66" t="s">
         <v>565</v>
       </c>
-      <c r="O6" s="85" t="s">
+      <c r="O6" s="66" t="s">
         <v>566</v>
       </c>
-      <c r="P6" s="81" t="s">
+      <c r="P6" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="Q6" s="81" t="s">
+      <c r="Q6" s="64" t="s">
         <v>568</v>
       </c>
-      <c r="R6" s="81" t="s">
+      <c r="R6" s="64" t="s">
         <v>569</v>
       </c>
-      <c r="S6" s="81" t="s">
+      <c r="S6" s="64" t="s">
         <v>570</v>
       </c>
-      <c r="T6" s="76" t="s">
+      <c r="T6" s="62" t="s">
         <v>571</v>
       </c>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="62" t="s">
         <v>572</v>
       </c>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="62" t="s">
         <v>573</v>
       </c>
-      <c r="W6" s="76" t="s">
+      <c r="W6" s="62" t="s">
         <v>574</v>
       </c>
-      <c r="X6" s="73" t="s">
+      <c r="X6" s="60" t="s">
         <v>575</v>
       </c>
-      <c r="Y6" s="73" t="s">
+      <c r="Y6" s="60" t="s">
         <v>576</v>
       </c>
-      <c r="Z6" s="73" t="s">
+      <c r="Z6" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="AA6" s="73" t="s">
+      <c r="AA6" s="60" t="s">
         <v>578</v>
       </c>
-      <c r="AB6" s="112"/>
+      <c r="AB6" s="109"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="120" t="s">
         <v>589</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="129">
-        <v>0</v>
-      </c>
-      <c r="E7" s="129">
-        <v>0</v>
-      </c>
-      <c r="F7" s="129">
-        <v>0</v>
-      </c>
-      <c r="G7" s="129">
-        <v>0</v>
-      </c>
-      <c r="H7" s="126">
-        <v>0</v>
-      </c>
-      <c r="I7" s="126">
-        <v>0</v>
-      </c>
-      <c r="J7" s="126">
-        <v>0</v>
-      </c>
-      <c r="K7" s="126">
-        <v>0</v>
-      </c>
-      <c r="L7" s="123">
-        <v>0</v>
-      </c>
-      <c r="M7" s="123">
-        <v>0</v>
-      </c>
-      <c r="N7" s="123">
-        <v>0</v>
-      </c>
-      <c r="O7" s="123">
-        <v>0</v>
-      </c>
-      <c r="P7" s="121">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="121">
-        <v>0</v>
-      </c>
-      <c r="R7" s="121">
-        <v>0</v>
-      </c>
-      <c r="S7" s="121">
-        <v>0</v>
-      </c>
-      <c r="T7" s="120">
-        <v>0</v>
-      </c>
-      <c r="U7" s="120">
-        <v>0</v>
-      </c>
-      <c r="V7" s="120">
-        <v>0</v>
-      </c>
-      <c r="W7" s="120">
-        <v>0</v>
-      </c>
-      <c r="X7" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="119">
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="78">
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="76">
+        <v>0</v>
+      </c>
+      <c r="I7" s="76">
+        <v>0</v>
+      </c>
+      <c r="J7" s="76">
+        <v>0</v>
+      </c>
+      <c r="K7" s="76">
+        <v>0</v>
+      </c>
+      <c r="L7" s="74">
+        <v>0</v>
+      </c>
+      <c r="M7" s="74">
+        <v>0</v>
+      </c>
+      <c r="N7" s="74">
+        <v>0</v>
+      </c>
+      <c r="O7" s="74">
+        <v>0</v>
+      </c>
+      <c r="P7" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="73">
+        <v>0</v>
+      </c>
+      <c r="R7" s="73">
+        <v>0</v>
+      </c>
+      <c r="S7" s="73">
+        <v>0</v>
+      </c>
+      <c r="T7" s="72">
+        <v>0</v>
+      </c>
+      <c r="U7" s="72">
+        <v>0</v>
+      </c>
+      <c r="V7" s="72">
+        <v>0</v>
+      </c>
+      <c r="W7" s="72">
+        <v>0</v>
+      </c>
+      <c r="X7" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="71">
         <v>0</v>
       </c>
       <c r="AB7" s="29">
         <v>0</v>
       </c>
-      <c r="AC7" s="91"/>
+      <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="102"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="129">
-        <v>0</v>
-      </c>
-      <c r="E8" s="129">
-        <v>0</v>
-      </c>
-      <c r="F8" s="129">
-        <v>0</v>
-      </c>
-      <c r="G8" s="129">
-        <v>1</v>
-      </c>
-      <c r="H8" s="126">
-        <v>0</v>
-      </c>
-      <c r="I8" s="126">
-        <v>0</v>
-      </c>
-      <c r="J8" s="126">
-        <v>0</v>
-      </c>
-      <c r="K8" s="126">
-        <v>1</v>
-      </c>
-      <c r="L8" s="123">
-        <v>0</v>
-      </c>
-      <c r="M8" s="123">
-        <v>0</v>
-      </c>
-      <c r="N8" s="123">
-        <v>0</v>
-      </c>
-      <c r="O8" s="123">
-        <v>1</v>
-      </c>
-      <c r="P8" s="121">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="121">
-        <v>0</v>
-      </c>
-      <c r="R8" s="121">
-        <v>0</v>
-      </c>
-      <c r="S8" s="121">
-        <v>1</v>
-      </c>
-      <c r="T8" s="120">
-        <v>0</v>
-      </c>
-      <c r="U8" s="120">
-        <v>0</v>
-      </c>
-      <c r="V8" s="120">
-        <v>0</v>
-      </c>
-      <c r="W8" s="120">
-        <v>1</v>
-      </c>
-      <c r="X8" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="119">
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="78">
+        <v>0</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0</v>
+      </c>
+      <c r="F8" s="78">
+        <v>0</v>
+      </c>
+      <c r="G8" s="78">
+        <v>1</v>
+      </c>
+      <c r="H8" s="76">
+        <v>0</v>
+      </c>
+      <c r="I8" s="76">
+        <v>0</v>
+      </c>
+      <c r="J8" s="76">
+        <v>0</v>
+      </c>
+      <c r="K8" s="76">
+        <v>1</v>
+      </c>
+      <c r="L8" s="74">
+        <v>0</v>
+      </c>
+      <c r="M8" s="74">
+        <v>0</v>
+      </c>
+      <c r="N8" s="74">
+        <v>0</v>
+      </c>
+      <c r="O8" s="74">
+        <v>1</v>
+      </c>
+      <c r="P8" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="73">
+        <v>0</v>
+      </c>
+      <c r="R8" s="73">
+        <v>0</v>
+      </c>
+      <c r="S8" s="73">
+        <v>1</v>
+      </c>
+      <c r="T8" s="72">
+        <v>0</v>
+      </c>
+      <c r="U8" s="72">
+        <v>0</v>
+      </c>
+      <c r="V8" s="72">
+        <v>0</v>
+      </c>
+      <c r="W8" s="72">
+        <v>1</v>
+      </c>
+      <c r="X8" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="71">
         <v>1</v>
       </c>
       <c r="AB8" s="29">
@@ -12306,79 +12310,79 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="129">
-        <v>0</v>
-      </c>
-      <c r="E9" s="129">
-        <v>0</v>
-      </c>
-      <c r="F9" s="129">
-        <v>1</v>
-      </c>
-      <c r="G9" s="129">
-        <v>0</v>
-      </c>
-      <c r="H9" s="126">
-        <v>0</v>
-      </c>
-      <c r="I9" s="126">
-        <v>0</v>
-      </c>
-      <c r="J9" s="126">
-        <v>1</v>
-      </c>
-      <c r="K9" s="126">
-        <v>0</v>
-      </c>
-      <c r="L9" s="123">
-        <v>0</v>
-      </c>
-      <c r="M9" s="123">
-        <v>0</v>
-      </c>
-      <c r="N9" s="123">
-        <v>1</v>
-      </c>
-      <c r="O9" s="123">
-        <v>0</v>
-      </c>
-      <c r="P9" s="121">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="121">
-        <v>0</v>
-      </c>
-      <c r="R9" s="121">
-        <v>1</v>
-      </c>
-      <c r="S9" s="121">
-        <v>0</v>
-      </c>
-      <c r="T9" s="120">
-        <v>0</v>
-      </c>
-      <c r="U9" s="120">
-        <v>0</v>
-      </c>
-      <c r="V9" s="120">
-        <v>1</v>
-      </c>
-      <c r="W9" s="120">
-        <v>0</v>
-      </c>
-      <c r="X9" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="119">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="78">
+        <v>0</v>
+      </c>
+      <c r="E9" s="78">
+        <v>0</v>
+      </c>
+      <c r="F9" s="78">
+        <v>1</v>
+      </c>
+      <c r="G9" s="78">
+        <v>0</v>
+      </c>
+      <c r="H9" s="76">
+        <v>0</v>
+      </c>
+      <c r="I9" s="76">
+        <v>0</v>
+      </c>
+      <c r="J9" s="76">
+        <v>1</v>
+      </c>
+      <c r="K9" s="76">
+        <v>0</v>
+      </c>
+      <c r="L9" s="74">
+        <v>0</v>
+      </c>
+      <c r="M9" s="74">
+        <v>0</v>
+      </c>
+      <c r="N9" s="74">
+        <v>1</v>
+      </c>
+      <c r="O9" s="74">
+        <v>0</v>
+      </c>
+      <c r="P9" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="73">
+        <v>0</v>
+      </c>
+      <c r="R9" s="73">
+        <v>1</v>
+      </c>
+      <c r="S9" s="73">
+        <v>0</v>
+      </c>
+      <c r="T9" s="72">
+        <v>0</v>
+      </c>
+      <c r="U9" s="72">
+        <v>0</v>
+      </c>
+      <c r="V9" s="72">
+        <v>1</v>
+      </c>
+      <c r="W9" s="72">
+        <v>0</v>
+      </c>
+      <c r="X9" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="71">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="71">
         <v>0</v>
       </c>
       <c r="AB9" s="29">
@@ -12386,79 +12390,79 @@
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="129">
-        <v>0</v>
-      </c>
-      <c r="E10" s="129">
-        <v>0</v>
-      </c>
-      <c r="F10" s="129">
-        <v>1</v>
-      </c>
-      <c r="G10" s="129">
-        <v>1</v>
-      </c>
-      <c r="H10" s="126">
-        <v>0</v>
-      </c>
-      <c r="I10" s="126">
-        <v>0</v>
-      </c>
-      <c r="J10" s="126">
-        <v>1</v>
-      </c>
-      <c r="K10" s="126">
-        <v>1</v>
-      </c>
-      <c r="L10" s="123">
-        <v>0</v>
-      </c>
-      <c r="M10" s="123">
-        <v>0</v>
-      </c>
-      <c r="N10" s="123">
-        <v>1</v>
-      </c>
-      <c r="O10" s="123">
-        <v>1</v>
-      </c>
-      <c r="P10" s="121">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="121">
-        <v>0</v>
-      </c>
-      <c r="R10" s="121">
-        <v>1</v>
-      </c>
-      <c r="S10" s="121">
-        <v>1</v>
-      </c>
-      <c r="T10" s="120">
-        <v>0</v>
-      </c>
-      <c r="U10" s="120">
-        <v>0</v>
-      </c>
-      <c r="V10" s="120">
-        <v>1</v>
-      </c>
-      <c r="W10" s="120">
-        <v>1</v>
-      </c>
-      <c r="X10" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="119">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="78">
+        <v>0</v>
+      </c>
+      <c r="E10" s="78">
+        <v>0</v>
+      </c>
+      <c r="F10" s="78">
+        <v>1</v>
+      </c>
+      <c r="G10" s="78">
+        <v>1</v>
+      </c>
+      <c r="H10" s="76">
+        <v>0</v>
+      </c>
+      <c r="I10" s="76">
+        <v>0</v>
+      </c>
+      <c r="J10" s="76">
+        <v>1</v>
+      </c>
+      <c r="K10" s="76">
+        <v>1</v>
+      </c>
+      <c r="L10" s="74">
+        <v>0</v>
+      </c>
+      <c r="M10" s="74">
+        <v>0</v>
+      </c>
+      <c r="N10" s="74">
+        <v>1</v>
+      </c>
+      <c r="O10" s="74">
+        <v>1</v>
+      </c>
+      <c r="P10" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="73">
+        <v>0</v>
+      </c>
+      <c r="R10" s="73">
+        <v>1</v>
+      </c>
+      <c r="S10" s="73">
+        <v>1</v>
+      </c>
+      <c r="T10" s="72">
+        <v>0</v>
+      </c>
+      <c r="U10" s="72">
+        <v>0</v>
+      </c>
+      <c r="V10" s="72">
+        <v>1</v>
+      </c>
+      <c r="W10" s="72">
+        <v>1</v>
+      </c>
+      <c r="X10" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="71">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="71">
         <v>1</v>
       </c>
       <c r="AB10" s="29">
@@ -12466,79 +12470,79 @@
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="129">
-        <v>0</v>
-      </c>
-      <c r="E11" s="129">
-        <v>1</v>
-      </c>
-      <c r="F11" s="129">
-        <v>0</v>
-      </c>
-      <c r="G11" s="129">
-        <v>0</v>
-      </c>
-      <c r="H11" s="126">
-        <v>0</v>
-      </c>
-      <c r="I11" s="126">
-        <v>1</v>
-      </c>
-      <c r="J11" s="126">
-        <v>0</v>
-      </c>
-      <c r="K11" s="126">
-        <v>0</v>
-      </c>
-      <c r="L11" s="123">
-        <v>0</v>
-      </c>
-      <c r="M11" s="123">
-        <v>1</v>
-      </c>
-      <c r="N11" s="123">
-        <v>0</v>
-      </c>
-      <c r="O11" s="123">
-        <v>0</v>
-      </c>
-      <c r="P11" s="121">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="121">
-        <v>1</v>
-      </c>
-      <c r="R11" s="121">
-        <v>0</v>
-      </c>
-      <c r="S11" s="121">
-        <v>0</v>
-      </c>
-      <c r="T11" s="120">
-        <v>0</v>
-      </c>
-      <c r="U11" s="120">
-        <v>1</v>
-      </c>
-      <c r="V11" s="120">
-        <v>0</v>
-      </c>
-      <c r="W11" s="120">
-        <v>0</v>
-      </c>
-      <c r="X11" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="119">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="119">
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="78">
+        <v>0</v>
+      </c>
+      <c r="E11" s="78">
+        <v>1</v>
+      </c>
+      <c r="F11" s="78">
+        <v>0</v>
+      </c>
+      <c r="G11" s="78">
+        <v>0</v>
+      </c>
+      <c r="H11" s="76">
+        <v>0</v>
+      </c>
+      <c r="I11" s="76">
+        <v>1</v>
+      </c>
+      <c r="J11" s="76">
+        <v>0</v>
+      </c>
+      <c r="K11" s="76">
+        <v>0</v>
+      </c>
+      <c r="L11" s="74">
+        <v>0</v>
+      </c>
+      <c r="M11" s="74">
+        <v>1</v>
+      </c>
+      <c r="N11" s="74">
+        <v>0</v>
+      </c>
+      <c r="O11" s="74">
+        <v>0</v>
+      </c>
+      <c r="P11" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="73">
+        <v>1</v>
+      </c>
+      <c r="R11" s="73">
+        <v>0</v>
+      </c>
+      <c r="S11" s="73">
+        <v>0</v>
+      </c>
+      <c r="T11" s="72">
+        <v>0</v>
+      </c>
+      <c r="U11" s="72">
+        <v>1</v>
+      </c>
+      <c r="V11" s="72">
+        <v>0</v>
+      </c>
+      <c r="W11" s="72">
+        <v>0</v>
+      </c>
+      <c r="X11" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="71">
         <v>0</v>
       </c>
       <c r="AB11" s="29">
@@ -12546,79 +12550,79 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="102"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="129">
-        <v>0</v>
-      </c>
-      <c r="E12" s="129">
-        <v>1</v>
-      </c>
-      <c r="F12" s="129">
-        <v>0</v>
-      </c>
-      <c r="G12" s="129">
-        <v>1</v>
-      </c>
-      <c r="H12" s="126">
-        <v>0</v>
-      </c>
-      <c r="I12" s="126">
-        <v>1</v>
-      </c>
-      <c r="J12" s="126">
-        <v>0</v>
-      </c>
-      <c r="K12" s="126">
-        <v>1</v>
-      </c>
-      <c r="L12" s="123">
-        <v>0</v>
-      </c>
-      <c r="M12" s="123">
-        <v>1</v>
-      </c>
-      <c r="N12" s="123">
-        <v>0</v>
-      </c>
-      <c r="O12" s="123">
-        <v>1</v>
-      </c>
-      <c r="P12" s="121">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="121">
-        <v>1</v>
-      </c>
-      <c r="R12" s="121">
-        <v>0</v>
-      </c>
-      <c r="S12" s="121">
-        <v>1</v>
-      </c>
-      <c r="T12" s="120">
-        <v>0</v>
-      </c>
-      <c r="U12" s="120">
-        <v>1</v>
-      </c>
-      <c r="V12" s="120">
-        <v>0</v>
-      </c>
-      <c r="W12" s="120">
-        <v>1</v>
-      </c>
-      <c r="X12" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="119">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="119">
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="78">
+        <v>0</v>
+      </c>
+      <c r="E12" s="78">
+        <v>1</v>
+      </c>
+      <c r="F12" s="78">
+        <v>0</v>
+      </c>
+      <c r="G12" s="78">
+        <v>1</v>
+      </c>
+      <c r="H12" s="76">
+        <v>0</v>
+      </c>
+      <c r="I12" s="76">
+        <v>1</v>
+      </c>
+      <c r="J12" s="76">
+        <v>0</v>
+      </c>
+      <c r="K12" s="76">
+        <v>1</v>
+      </c>
+      <c r="L12" s="74">
+        <v>0</v>
+      </c>
+      <c r="M12" s="74">
+        <v>1</v>
+      </c>
+      <c r="N12" s="74">
+        <v>0</v>
+      </c>
+      <c r="O12" s="74">
+        <v>1</v>
+      </c>
+      <c r="P12" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="73">
+        <v>1</v>
+      </c>
+      <c r="R12" s="73">
+        <v>0</v>
+      </c>
+      <c r="S12" s="73">
+        <v>1</v>
+      </c>
+      <c r="T12" s="72">
+        <v>0</v>
+      </c>
+      <c r="U12" s="72">
+        <v>1</v>
+      </c>
+      <c r="V12" s="72">
+        <v>0</v>
+      </c>
+      <c r="W12" s="72">
+        <v>1</v>
+      </c>
+      <c r="X12" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="71">
         <v>1</v>
       </c>
       <c r="AB12" s="29">
@@ -12626,79 +12630,79 @@
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="129">
-        <v>0</v>
-      </c>
-      <c r="E13" s="129">
-        <v>1</v>
-      </c>
-      <c r="F13" s="129">
-        <v>1</v>
-      </c>
-      <c r="G13" s="129">
-        <v>0</v>
-      </c>
-      <c r="H13" s="126">
-        <v>0</v>
-      </c>
-      <c r="I13" s="126">
-        <v>1</v>
-      </c>
-      <c r="J13" s="126">
-        <v>1</v>
-      </c>
-      <c r="K13" s="126">
-        <v>0</v>
-      </c>
-      <c r="L13" s="123">
-        <v>0</v>
-      </c>
-      <c r="M13" s="123">
-        <v>1</v>
-      </c>
-      <c r="N13" s="123">
-        <v>1</v>
-      </c>
-      <c r="O13" s="123">
-        <v>0</v>
-      </c>
-      <c r="P13" s="121">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="121">
-        <v>1</v>
-      </c>
-      <c r="R13" s="121">
-        <v>1</v>
-      </c>
-      <c r="S13" s="121">
-        <v>0</v>
-      </c>
-      <c r="T13" s="120">
-        <v>0</v>
-      </c>
-      <c r="U13" s="120">
-        <v>1</v>
-      </c>
-      <c r="V13" s="120">
-        <v>1</v>
-      </c>
-      <c r="W13" s="120">
-        <v>0</v>
-      </c>
-      <c r="X13" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="119">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="119">
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="78">
+        <v>0</v>
+      </c>
+      <c r="E13" s="78">
+        <v>1</v>
+      </c>
+      <c r="F13" s="78">
+        <v>1</v>
+      </c>
+      <c r="G13" s="78">
+        <v>0</v>
+      </c>
+      <c r="H13" s="76">
+        <v>0</v>
+      </c>
+      <c r="I13" s="76">
+        <v>1</v>
+      </c>
+      <c r="J13" s="76">
+        <v>1</v>
+      </c>
+      <c r="K13" s="76">
+        <v>0</v>
+      </c>
+      <c r="L13" s="74">
+        <v>0</v>
+      </c>
+      <c r="M13" s="74">
+        <v>1</v>
+      </c>
+      <c r="N13" s="74">
+        <v>1</v>
+      </c>
+      <c r="O13" s="74">
+        <v>0</v>
+      </c>
+      <c r="P13" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="73">
+        <v>1</v>
+      </c>
+      <c r="R13" s="73">
+        <v>1</v>
+      </c>
+      <c r="S13" s="73">
+        <v>0</v>
+      </c>
+      <c r="T13" s="72">
+        <v>0</v>
+      </c>
+      <c r="U13" s="72">
+        <v>1</v>
+      </c>
+      <c r="V13" s="72">
+        <v>1</v>
+      </c>
+      <c r="W13" s="72">
+        <v>0</v>
+      </c>
+      <c r="X13" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="71">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="71">
         <v>0</v>
       </c>
       <c r="AB13" s="29">
@@ -12706,79 +12710,79 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="102"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="129">
-        <v>0</v>
-      </c>
-      <c r="E14" s="129">
-        <v>1</v>
-      </c>
-      <c r="F14" s="129">
-        <v>1</v>
-      </c>
-      <c r="G14" s="129">
-        <v>1</v>
-      </c>
-      <c r="H14" s="126">
-        <v>0</v>
-      </c>
-      <c r="I14" s="126">
-        <v>1</v>
-      </c>
-      <c r="J14" s="126">
-        <v>1</v>
-      </c>
-      <c r="K14" s="126">
-        <v>1</v>
-      </c>
-      <c r="L14" s="123">
-        <v>0</v>
-      </c>
-      <c r="M14" s="123">
-        <v>1</v>
-      </c>
-      <c r="N14" s="123">
-        <v>1</v>
-      </c>
-      <c r="O14" s="123">
-        <v>1</v>
-      </c>
-      <c r="P14" s="121">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="121">
-        <v>1</v>
-      </c>
-      <c r="R14" s="121">
-        <v>1</v>
-      </c>
-      <c r="S14" s="121">
-        <v>1</v>
-      </c>
-      <c r="T14" s="120">
-        <v>0</v>
-      </c>
-      <c r="U14" s="120">
-        <v>1</v>
-      </c>
-      <c r="V14" s="120">
-        <v>1</v>
-      </c>
-      <c r="W14" s="120">
-        <v>1</v>
-      </c>
-      <c r="X14" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="119">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="119">
+      <c r="A14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="78">
+        <v>0</v>
+      </c>
+      <c r="E14" s="78">
+        <v>1</v>
+      </c>
+      <c r="F14" s="78">
+        <v>1</v>
+      </c>
+      <c r="G14" s="78">
+        <v>1</v>
+      </c>
+      <c r="H14" s="76">
+        <v>0</v>
+      </c>
+      <c r="I14" s="76">
+        <v>1</v>
+      </c>
+      <c r="J14" s="76">
+        <v>1</v>
+      </c>
+      <c r="K14" s="76">
+        <v>1</v>
+      </c>
+      <c r="L14" s="74">
+        <v>0</v>
+      </c>
+      <c r="M14" s="74">
+        <v>1</v>
+      </c>
+      <c r="N14" s="74">
+        <v>1</v>
+      </c>
+      <c r="O14" s="74">
+        <v>1</v>
+      </c>
+      <c r="P14" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="73">
+        <v>1</v>
+      </c>
+      <c r="R14" s="73">
+        <v>1</v>
+      </c>
+      <c r="S14" s="73">
+        <v>1</v>
+      </c>
+      <c r="T14" s="72">
+        <v>0</v>
+      </c>
+      <c r="U14" s="72">
+        <v>1</v>
+      </c>
+      <c r="V14" s="72">
+        <v>1</v>
+      </c>
+      <c r="W14" s="72">
+        <v>1</v>
+      </c>
+      <c r="X14" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="71">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="71">
         <v>1</v>
       </c>
       <c r="AB14" s="29">
@@ -12786,79 +12790,79 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="102"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="129">
-        <v>1</v>
-      </c>
-      <c r="E15" s="129">
-        <v>0</v>
-      </c>
-      <c r="F15" s="129">
-        <v>0</v>
-      </c>
-      <c r="G15" s="129">
-        <v>0</v>
-      </c>
-      <c r="H15" s="126">
-        <v>1</v>
-      </c>
-      <c r="I15" s="126">
-        <v>0</v>
-      </c>
-      <c r="J15" s="126">
-        <v>0</v>
-      </c>
-      <c r="K15" s="126">
-        <v>0</v>
-      </c>
-      <c r="L15" s="123">
-        <v>1</v>
-      </c>
-      <c r="M15" s="123">
-        <v>0</v>
-      </c>
-      <c r="N15" s="123">
-        <v>0</v>
-      </c>
-      <c r="O15" s="123">
-        <v>0</v>
-      </c>
-      <c r="P15" s="121">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="121">
-        <v>0</v>
-      </c>
-      <c r="R15" s="121">
-        <v>0</v>
-      </c>
-      <c r="S15" s="121">
-        <v>0</v>
-      </c>
-      <c r="T15" s="120">
-        <v>1</v>
-      </c>
-      <c r="U15" s="120">
-        <v>0</v>
-      </c>
-      <c r="V15" s="120">
-        <v>0</v>
-      </c>
-      <c r="W15" s="120">
-        <v>0</v>
-      </c>
-      <c r="X15" s="119">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="119">
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="78">
+        <v>1</v>
+      </c>
+      <c r="E15" s="78">
+        <v>0</v>
+      </c>
+      <c r="F15" s="78">
+        <v>0</v>
+      </c>
+      <c r="G15" s="78">
+        <v>0</v>
+      </c>
+      <c r="H15" s="76">
+        <v>1</v>
+      </c>
+      <c r="I15" s="76">
+        <v>0</v>
+      </c>
+      <c r="J15" s="76">
+        <v>0</v>
+      </c>
+      <c r="K15" s="76">
+        <v>0</v>
+      </c>
+      <c r="L15" s="74">
+        <v>1</v>
+      </c>
+      <c r="M15" s="74">
+        <v>0</v>
+      </c>
+      <c r="N15" s="74">
+        <v>0</v>
+      </c>
+      <c r="O15" s="74">
+        <v>0</v>
+      </c>
+      <c r="P15" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="73">
+        <v>0</v>
+      </c>
+      <c r="R15" s="73">
+        <v>0</v>
+      </c>
+      <c r="S15" s="73">
+        <v>0</v>
+      </c>
+      <c r="T15" s="72">
+        <v>1</v>
+      </c>
+      <c r="U15" s="72">
+        <v>0</v>
+      </c>
+      <c r="V15" s="72">
+        <v>0</v>
+      </c>
+      <c r="W15" s="72">
+        <v>0</v>
+      </c>
+      <c r="X15" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="71">
         <v>0</v>
       </c>
       <c r="AB15" s="29">
@@ -12866,79 +12870,79 @@
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="129">
-        <v>1</v>
-      </c>
-      <c r="E16" s="129">
-        <v>0</v>
-      </c>
-      <c r="F16" s="129">
-        <v>0</v>
-      </c>
-      <c r="G16" s="129">
-        <v>1</v>
-      </c>
-      <c r="H16" s="126">
-        <v>1</v>
-      </c>
-      <c r="I16" s="126">
-        <v>0</v>
-      </c>
-      <c r="J16" s="126">
-        <v>0</v>
-      </c>
-      <c r="K16" s="126">
-        <v>1</v>
-      </c>
-      <c r="L16" s="123">
-        <v>1</v>
-      </c>
-      <c r="M16" s="123">
-        <v>0</v>
-      </c>
-      <c r="N16" s="123">
-        <v>0</v>
-      </c>
-      <c r="O16" s="123">
-        <v>1</v>
-      </c>
-      <c r="P16" s="121">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="121">
-        <v>0</v>
-      </c>
-      <c r="R16" s="121">
-        <v>0</v>
-      </c>
-      <c r="S16" s="121">
-        <v>1</v>
-      </c>
-      <c r="T16" s="120">
-        <v>1</v>
-      </c>
-      <c r="U16" s="120">
-        <v>0</v>
-      </c>
-      <c r="V16" s="120">
-        <v>0</v>
-      </c>
-      <c r="W16" s="120">
-        <v>1</v>
-      </c>
-      <c r="X16" s="119">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="119">
+      <c r="A16" s="123"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="78">
+        <v>1</v>
+      </c>
+      <c r="E16" s="78">
+        <v>0</v>
+      </c>
+      <c r="F16" s="78">
+        <v>0</v>
+      </c>
+      <c r="G16" s="78">
+        <v>1</v>
+      </c>
+      <c r="H16" s="76">
+        <v>1</v>
+      </c>
+      <c r="I16" s="76">
+        <v>0</v>
+      </c>
+      <c r="J16" s="76">
+        <v>0</v>
+      </c>
+      <c r="K16" s="76">
+        <v>1</v>
+      </c>
+      <c r="L16" s="74">
+        <v>1</v>
+      </c>
+      <c r="M16" s="74">
+        <v>0</v>
+      </c>
+      <c r="N16" s="74">
+        <v>0</v>
+      </c>
+      <c r="O16" s="74">
+        <v>1</v>
+      </c>
+      <c r="P16" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="73">
+        <v>0</v>
+      </c>
+      <c r="R16" s="73">
+        <v>0</v>
+      </c>
+      <c r="S16" s="73">
+        <v>1</v>
+      </c>
+      <c r="T16" s="72">
+        <v>1</v>
+      </c>
+      <c r="U16" s="72">
+        <v>0</v>
+      </c>
+      <c r="V16" s="72">
+        <v>0</v>
+      </c>
+      <c r="W16" s="72">
+        <v>1</v>
+      </c>
+      <c r="X16" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="71">
         <v>1</v>
       </c>
       <c r="AB16" s="29">
@@ -12946,79 +12950,79 @@
       </c>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="102"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="129">
-        <v>1</v>
-      </c>
-      <c r="E17" s="129">
-        <v>0</v>
-      </c>
-      <c r="F17" s="129">
-        <v>1</v>
-      </c>
-      <c r="G17" s="129">
-        <v>0</v>
-      </c>
-      <c r="H17" s="126">
-        <v>1</v>
-      </c>
-      <c r="I17" s="126">
-        <v>0</v>
-      </c>
-      <c r="J17" s="126">
-        <v>1</v>
-      </c>
-      <c r="K17" s="126">
-        <v>0</v>
-      </c>
-      <c r="L17" s="123">
-        <v>1</v>
-      </c>
-      <c r="M17" s="123">
-        <v>0</v>
-      </c>
-      <c r="N17" s="123">
-        <v>1</v>
-      </c>
-      <c r="O17" s="123">
-        <v>0</v>
-      </c>
-      <c r="P17" s="121">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="121">
-        <v>0</v>
-      </c>
-      <c r="R17" s="121">
-        <v>1</v>
-      </c>
-      <c r="S17" s="121">
-        <v>0</v>
-      </c>
-      <c r="T17" s="120">
-        <v>1</v>
-      </c>
-      <c r="U17" s="120">
-        <v>0</v>
-      </c>
-      <c r="V17" s="120">
-        <v>1</v>
-      </c>
-      <c r="W17" s="120">
-        <v>0</v>
-      </c>
-      <c r="X17" s="119">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="119">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="78">
+        <v>1</v>
+      </c>
+      <c r="E17" s="78">
+        <v>0</v>
+      </c>
+      <c r="F17" s="78">
+        <v>1</v>
+      </c>
+      <c r="G17" s="78">
+        <v>0</v>
+      </c>
+      <c r="H17" s="76">
+        <v>1</v>
+      </c>
+      <c r="I17" s="76">
+        <v>0</v>
+      </c>
+      <c r="J17" s="76">
+        <v>1</v>
+      </c>
+      <c r="K17" s="76">
+        <v>0</v>
+      </c>
+      <c r="L17" s="74">
+        <v>1</v>
+      </c>
+      <c r="M17" s="74">
+        <v>0</v>
+      </c>
+      <c r="N17" s="74">
+        <v>1</v>
+      </c>
+      <c r="O17" s="74">
+        <v>0</v>
+      </c>
+      <c r="P17" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="73">
+        <v>0</v>
+      </c>
+      <c r="R17" s="73">
+        <v>1</v>
+      </c>
+      <c r="S17" s="73">
+        <v>0</v>
+      </c>
+      <c r="T17" s="72">
+        <v>1</v>
+      </c>
+      <c r="U17" s="72">
+        <v>0</v>
+      </c>
+      <c r="V17" s="72">
+        <v>1</v>
+      </c>
+      <c r="W17" s="72">
+        <v>0</v>
+      </c>
+      <c r="X17" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="71">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="71">
         <v>0</v>
       </c>
       <c r="AB17" s="29">
@@ -13026,79 +13030,79 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="15" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="129">
-        <v>1</v>
-      </c>
-      <c r="E18" s="129">
-        <v>0</v>
-      </c>
-      <c r="F18" s="129">
-        <v>1</v>
-      </c>
-      <c r="G18" s="129">
-        <v>1</v>
-      </c>
-      <c r="H18" s="126">
-        <v>1</v>
-      </c>
-      <c r="I18" s="126">
-        <v>0</v>
-      </c>
-      <c r="J18" s="126">
-        <v>1</v>
-      </c>
-      <c r="K18" s="126">
-        <v>1</v>
-      </c>
-      <c r="L18" s="123">
-        <v>1</v>
-      </c>
-      <c r="M18" s="123">
-        <v>0</v>
-      </c>
-      <c r="N18" s="123">
-        <v>1</v>
-      </c>
-      <c r="O18" s="123">
-        <v>1</v>
-      </c>
-      <c r="P18" s="121">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="121">
-        <v>0</v>
-      </c>
-      <c r="R18" s="121">
-        <v>1</v>
-      </c>
-      <c r="S18" s="121">
-        <v>1</v>
-      </c>
-      <c r="T18" s="120">
-        <v>1</v>
-      </c>
-      <c r="U18" s="120">
-        <v>0</v>
-      </c>
-      <c r="V18" s="120">
-        <v>1</v>
-      </c>
-      <c r="W18" s="120">
-        <v>1</v>
-      </c>
-      <c r="X18" s="119">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="119">
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="78">
+        <v>1</v>
+      </c>
+      <c r="E18" s="78">
+        <v>0</v>
+      </c>
+      <c r="F18" s="78">
+        <v>1</v>
+      </c>
+      <c r="G18" s="78">
+        <v>1</v>
+      </c>
+      <c r="H18" s="76">
+        <v>1</v>
+      </c>
+      <c r="I18" s="76">
+        <v>0</v>
+      </c>
+      <c r="J18" s="76">
+        <v>1</v>
+      </c>
+      <c r="K18" s="76">
+        <v>1</v>
+      </c>
+      <c r="L18" s="74">
+        <v>1</v>
+      </c>
+      <c r="M18" s="74">
+        <v>0</v>
+      </c>
+      <c r="N18" s="74">
+        <v>1</v>
+      </c>
+      <c r="O18" s="74">
+        <v>1</v>
+      </c>
+      <c r="P18" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="73">
+        <v>0</v>
+      </c>
+      <c r="R18" s="73">
+        <v>1</v>
+      </c>
+      <c r="S18" s="73">
+        <v>1</v>
+      </c>
+      <c r="T18" s="72">
+        <v>1</v>
+      </c>
+      <c r="U18" s="72">
+        <v>0</v>
+      </c>
+      <c r="V18" s="72">
+        <v>1</v>
+      </c>
+      <c r="W18" s="72">
+        <v>1</v>
+      </c>
+      <c r="X18" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="71">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="71">
         <v>1</v>
       </c>
       <c r="AB18" s="29">
@@ -13106,79 +13110,79 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="15" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="129">
-        <v>1</v>
-      </c>
-      <c r="E19" s="129">
-        <v>1</v>
-      </c>
-      <c r="F19" s="129">
-        <v>0</v>
-      </c>
-      <c r="G19" s="129">
-        <v>0</v>
-      </c>
-      <c r="H19" s="126">
-        <v>1</v>
-      </c>
-      <c r="I19" s="126">
-        <v>1</v>
-      </c>
-      <c r="J19" s="126">
-        <v>0</v>
-      </c>
-      <c r="K19" s="126">
-        <v>0</v>
-      </c>
-      <c r="L19" s="123">
-        <v>1</v>
-      </c>
-      <c r="M19" s="123">
-        <v>1</v>
-      </c>
-      <c r="N19" s="123">
-        <v>0</v>
-      </c>
-      <c r="O19" s="123">
-        <v>0</v>
-      </c>
-      <c r="P19" s="121">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="121">
-        <v>1</v>
-      </c>
-      <c r="R19" s="121">
-        <v>0</v>
-      </c>
-      <c r="S19" s="121">
-        <v>0</v>
-      </c>
-      <c r="T19" s="120">
-        <v>1</v>
-      </c>
-      <c r="U19" s="120">
-        <v>1</v>
-      </c>
-      <c r="V19" s="120">
-        <v>0</v>
-      </c>
-      <c r="W19" s="120">
-        <v>0</v>
-      </c>
-      <c r="X19" s="119">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="119">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="119">
+      <c r="A19" s="123"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="78">
+        <v>1</v>
+      </c>
+      <c r="E19" s="78">
+        <v>1</v>
+      </c>
+      <c r="F19" s="78">
+        <v>0</v>
+      </c>
+      <c r="G19" s="78">
+        <v>0</v>
+      </c>
+      <c r="H19" s="76">
+        <v>1</v>
+      </c>
+      <c r="I19" s="76">
+        <v>1</v>
+      </c>
+      <c r="J19" s="76">
+        <v>0</v>
+      </c>
+      <c r="K19" s="76">
+        <v>0</v>
+      </c>
+      <c r="L19" s="74">
+        <v>1</v>
+      </c>
+      <c r="M19" s="74">
+        <v>1</v>
+      </c>
+      <c r="N19" s="74">
+        <v>0</v>
+      </c>
+      <c r="O19" s="74">
+        <v>0</v>
+      </c>
+      <c r="P19" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="73">
+        <v>1</v>
+      </c>
+      <c r="R19" s="73">
+        <v>0</v>
+      </c>
+      <c r="S19" s="73">
+        <v>0</v>
+      </c>
+      <c r="T19" s="72">
+        <v>1</v>
+      </c>
+      <c r="U19" s="72">
+        <v>1</v>
+      </c>
+      <c r="V19" s="72">
+        <v>0</v>
+      </c>
+      <c r="W19" s="72">
+        <v>0</v>
+      </c>
+      <c r="X19" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="71">
         <v>0</v>
       </c>
       <c r="AB19" s="29">
@@ -13186,79 +13190,79 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="15" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="129">
-        <v>1</v>
-      </c>
-      <c r="E20" s="129">
-        <v>1</v>
-      </c>
-      <c r="F20" s="129">
-        <v>0</v>
-      </c>
-      <c r="G20" s="129">
-        <v>1</v>
-      </c>
-      <c r="H20" s="126">
-        <v>1</v>
-      </c>
-      <c r="I20" s="126">
-        <v>1</v>
-      </c>
-      <c r="J20" s="126">
-        <v>0</v>
-      </c>
-      <c r="K20" s="126">
-        <v>1</v>
-      </c>
-      <c r="L20" s="123">
-        <v>1</v>
-      </c>
-      <c r="M20" s="123">
-        <v>1</v>
-      </c>
-      <c r="N20" s="123">
-        <v>0</v>
-      </c>
-      <c r="O20" s="123">
-        <v>1</v>
-      </c>
-      <c r="P20" s="121">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="121">
-        <v>1</v>
-      </c>
-      <c r="R20" s="121">
-        <v>0</v>
-      </c>
-      <c r="S20" s="121">
-        <v>1</v>
-      </c>
-      <c r="T20" s="120">
-        <v>1</v>
-      </c>
-      <c r="U20" s="120">
-        <v>1</v>
-      </c>
-      <c r="V20" s="120">
-        <v>0</v>
-      </c>
-      <c r="W20" s="120">
-        <v>1</v>
-      </c>
-      <c r="X20" s="119">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="119">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="119">
+      <c r="A20" s="123"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="78">
+        <v>1</v>
+      </c>
+      <c r="E20" s="78">
+        <v>1</v>
+      </c>
+      <c r="F20" s="78">
+        <v>0</v>
+      </c>
+      <c r="G20" s="78">
+        <v>1</v>
+      </c>
+      <c r="H20" s="76">
+        <v>1</v>
+      </c>
+      <c r="I20" s="76">
+        <v>1</v>
+      </c>
+      <c r="J20" s="76">
+        <v>0</v>
+      </c>
+      <c r="K20" s="76">
+        <v>1</v>
+      </c>
+      <c r="L20" s="74">
+        <v>1</v>
+      </c>
+      <c r="M20" s="74">
+        <v>1</v>
+      </c>
+      <c r="N20" s="74">
+        <v>0</v>
+      </c>
+      <c r="O20" s="74">
+        <v>1</v>
+      </c>
+      <c r="P20" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="73">
+        <v>1</v>
+      </c>
+      <c r="R20" s="73">
+        <v>0</v>
+      </c>
+      <c r="S20" s="73">
+        <v>1</v>
+      </c>
+      <c r="T20" s="72">
+        <v>1</v>
+      </c>
+      <c r="U20" s="72">
+        <v>1</v>
+      </c>
+      <c r="V20" s="72">
+        <v>0</v>
+      </c>
+      <c r="W20" s="72">
+        <v>1</v>
+      </c>
+      <c r="X20" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="71">
         <v>1</v>
       </c>
       <c r="AB20" s="29">
@@ -13266,79 +13270,79 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="15" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="129">
-        <v>1</v>
-      </c>
-      <c r="E21" s="129">
-        <v>1</v>
-      </c>
-      <c r="F21" s="129">
-        <v>1</v>
-      </c>
-      <c r="G21" s="129">
-        <v>0</v>
-      </c>
-      <c r="H21" s="126">
-        <v>1</v>
-      </c>
-      <c r="I21" s="126">
-        <v>1</v>
-      </c>
-      <c r="J21" s="126">
-        <v>1</v>
-      </c>
-      <c r="K21" s="126">
-        <v>0</v>
-      </c>
-      <c r="L21" s="123">
-        <v>1</v>
-      </c>
-      <c r="M21" s="123">
-        <v>1</v>
-      </c>
-      <c r="N21" s="123">
-        <v>1</v>
-      </c>
-      <c r="O21" s="123">
-        <v>0</v>
-      </c>
-      <c r="P21" s="121">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="121">
-        <v>1</v>
-      </c>
-      <c r="R21" s="121">
-        <v>1</v>
-      </c>
-      <c r="S21" s="121">
-        <v>0</v>
-      </c>
-      <c r="T21" s="120">
-        <v>1</v>
-      </c>
-      <c r="U21" s="120">
-        <v>1</v>
-      </c>
-      <c r="V21" s="120">
-        <v>1</v>
-      </c>
-      <c r="W21" s="120">
-        <v>0</v>
-      </c>
-      <c r="X21" s="119">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="119">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="119">
+      <c r="A21" s="123"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="78">
+        <v>1</v>
+      </c>
+      <c r="E21" s="78">
+        <v>1</v>
+      </c>
+      <c r="F21" s="78">
+        <v>1</v>
+      </c>
+      <c r="G21" s="78">
+        <v>0</v>
+      </c>
+      <c r="H21" s="76">
+        <v>1</v>
+      </c>
+      <c r="I21" s="76">
+        <v>1</v>
+      </c>
+      <c r="J21" s="76">
+        <v>1</v>
+      </c>
+      <c r="K21" s="76">
+        <v>0</v>
+      </c>
+      <c r="L21" s="74">
+        <v>1</v>
+      </c>
+      <c r="M21" s="74">
+        <v>1</v>
+      </c>
+      <c r="N21" s="74">
+        <v>1</v>
+      </c>
+      <c r="O21" s="74">
+        <v>0</v>
+      </c>
+      <c r="P21" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="73">
+        <v>1</v>
+      </c>
+      <c r="R21" s="73">
+        <v>1</v>
+      </c>
+      <c r="S21" s="73">
+        <v>0</v>
+      </c>
+      <c r="T21" s="72">
+        <v>1</v>
+      </c>
+      <c r="U21" s="72">
+        <v>1</v>
+      </c>
+      <c r="V21" s="72">
+        <v>1</v>
+      </c>
+      <c r="W21" s="72">
+        <v>0</v>
+      </c>
+      <c r="X21" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="71">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="71">
         <v>0</v>
       </c>
       <c r="AB21" s="29">
@@ -13346,79 +13350,79 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="15" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="129">
-        <v>1</v>
-      </c>
-      <c r="E22" s="129">
-        <v>1</v>
-      </c>
-      <c r="F22" s="129">
-        <v>1</v>
-      </c>
-      <c r="G22" s="129">
-        <v>1</v>
-      </c>
-      <c r="H22" s="126">
-        <v>1</v>
-      </c>
-      <c r="I22" s="126">
-        <v>1</v>
-      </c>
-      <c r="J22" s="126">
-        <v>1</v>
-      </c>
-      <c r="K22" s="126">
-        <v>1</v>
-      </c>
-      <c r="L22" s="123">
-        <v>1</v>
-      </c>
-      <c r="M22" s="123">
-        <v>1</v>
-      </c>
-      <c r="N22" s="123">
-        <v>1</v>
-      </c>
-      <c r="O22" s="123">
-        <v>1</v>
-      </c>
-      <c r="P22" s="121">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="121">
-        <v>1</v>
-      </c>
-      <c r="R22" s="121">
-        <v>1</v>
-      </c>
-      <c r="S22" s="121">
-        <v>1</v>
-      </c>
-      <c r="T22" s="120">
-        <v>1</v>
-      </c>
-      <c r="U22" s="120">
-        <v>1</v>
-      </c>
-      <c r="V22" s="120">
-        <v>1</v>
-      </c>
-      <c r="W22" s="120">
-        <v>1</v>
-      </c>
-      <c r="X22" s="119">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="119">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="119">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="119">
+      <c r="A22" s="126"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="78">
+        <v>1</v>
+      </c>
+      <c r="E22" s="78">
+        <v>1</v>
+      </c>
+      <c r="F22" s="78">
+        <v>1</v>
+      </c>
+      <c r="G22" s="78">
+        <v>1</v>
+      </c>
+      <c r="H22" s="76">
+        <v>1</v>
+      </c>
+      <c r="I22" s="76">
+        <v>1</v>
+      </c>
+      <c r="J22" s="76">
+        <v>1</v>
+      </c>
+      <c r="K22" s="76">
+        <v>1</v>
+      </c>
+      <c r="L22" s="74">
+        <v>1</v>
+      </c>
+      <c r="M22" s="74">
+        <v>1</v>
+      </c>
+      <c r="N22" s="74">
+        <v>1</v>
+      </c>
+      <c r="O22" s="74">
+        <v>1</v>
+      </c>
+      <c r="P22" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="73">
+        <v>1</v>
+      </c>
+      <c r="R22" s="73">
+        <v>1</v>
+      </c>
+      <c r="S22" s="73">
+        <v>1</v>
+      </c>
+      <c r="T22" s="72">
+        <v>1</v>
+      </c>
+      <c r="U22" s="72">
+        <v>1</v>
+      </c>
+      <c r="V22" s="72">
+        <v>1</v>
+      </c>
+      <c r="W22" s="72">
+        <v>1</v>
+      </c>
+      <c r="X22" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="71">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="71">
         <v>1</v>
       </c>
       <c r="AB22" s="29">
@@ -13426,279 +13430,295 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="15" customHeight="1">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="106" t="s">
         <v>592</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="70" t="s">
         <v>598</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="70" t="s">
         <v>599</v>
       </c>
-      <c r="D24" s="71">
-        <v>0</v>
-      </c>
-      <c r="E24" s="71">
-        <v>1</v>
-      </c>
-      <c r="F24" s="71">
-        <v>1</v>
-      </c>
-      <c r="G24" s="71">
-        <v>0</v>
-      </c>
-      <c r="H24" s="71">
-        <v>0</v>
-      </c>
-      <c r="I24" s="71">
-        <v>0</v>
-      </c>
-      <c r="J24" s="71">
-        <v>1</v>
-      </c>
-      <c r="K24" s="71">
-        <v>0</v>
-      </c>
-      <c r="L24" s="71">
-        <v>1</v>
-      </c>
-      <c r="M24" s="71">
-        <v>0</v>
-      </c>
-      <c r="N24" s="71">
-        <v>1</v>
-      </c>
-      <c r="O24" s="71">
-        <v>0</v>
-      </c>
-      <c r="P24" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="71">
-        <v>1</v>
-      </c>
-      <c r="R24" s="71">
-        <v>1</v>
-      </c>
-      <c r="S24" s="71">
-        <v>0</v>
-      </c>
-      <c r="T24" s="71">
-        <v>0</v>
-      </c>
-      <c r="U24" s="71">
-        <v>1</v>
-      </c>
-      <c r="V24" s="71">
-        <v>0</v>
-      </c>
-      <c r="W24" s="71">
-        <v>0</v>
-      </c>
-      <c r="X24" s="71">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="71">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="71">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="71">
+      <c r="D24" s="59">
+        <v>0</v>
+      </c>
+      <c r="E24" s="59">
+        <v>1</v>
+      </c>
+      <c r="F24" s="59">
+        <v>1</v>
+      </c>
+      <c r="G24" s="59">
+        <v>0</v>
+      </c>
+      <c r="H24" s="59">
+        <v>0</v>
+      </c>
+      <c r="I24" s="59">
+        <v>0</v>
+      </c>
+      <c r="J24" s="59">
+        <v>1</v>
+      </c>
+      <c r="K24" s="59">
+        <v>0</v>
+      </c>
+      <c r="L24" s="59">
+        <v>1</v>
+      </c>
+      <c r="M24" s="59">
+        <v>0</v>
+      </c>
+      <c r="N24" s="59">
+        <v>1</v>
+      </c>
+      <c r="O24" s="59">
+        <v>0</v>
+      </c>
+      <c r="P24" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="59">
+        <v>1</v>
+      </c>
+      <c r="R24" s="59">
+        <v>1</v>
+      </c>
+      <c r="S24" s="59">
+        <v>0</v>
+      </c>
+      <c r="T24" s="59">
+        <v>0</v>
+      </c>
+      <c r="U24" s="59">
+        <v>1</v>
+      </c>
+      <c r="V24" s="59">
+        <v>0</v>
+      </c>
+      <c r="W24" s="59">
+        <v>0</v>
+      </c>
+      <c r="X24" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="15" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="116" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="112" t="s">
         <v>594</v>
       </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="115"/>
-      <c r="Z25" s="115"/>
-      <c r="AA25" s="115"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
     </row>
     <row r="26" spans="1:28" ht="15" customHeight="1">
-      <c r="AB26" s="108"/>
+      <c r="AB26" s="69"/>
     </row>
     <row r="27" spans="1:28" ht="15" customHeight="1">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="113" t="s">
         <v>587</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="92" t="s">
         <v>543</v>
       </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="97" t="s">
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95" t="s">
         <v>545</v>
       </c>
-      <c r="N27" s="140"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="140"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="140"/>
-      <c r="U27" s="140"/>
-      <c r="V27" s="140"/>
-      <c r="W27" s="140"/>
-      <c r="X27" s="141"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="97"/>
     </row>
     <row r="28" spans="1:28" ht="15" customHeight="1">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="92" t="s">
         <v>542</v>
       </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97" t="s">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="140"/>
-      <c r="S28" s="140"/>
-      <c r="T28" s="140"/>
-      <c r="U28" s="140"/>
-      <c r="V28" s="140"/>
-      <c r="W28" s="140"/>
-      <c r="X28" s="141"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="97"/>
     </row>
     <row r="29" spans="1:28" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="139"/>
-      <c r="Q29" s="139"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="139"/>
-      <c r="Z29" s="108"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Z29" s="69"/>
     </row>
     <row r="30" spans="1:28" ht="15" customHeight="1">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="133" t="s">
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="133" t="s">
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="100" t="s">
         <v>284</v>
       </c>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="133" t="s">
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="133" t="s">
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="100" t="s">
         <v>286</v>
       </c>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="133" t="s">
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="135"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="102"/>
     </row>
     <row r="31" spans="1:28" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="136"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="137"/>
-      <c r="O31" s="137"/>
-      <c r="P31" s="138"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="137"/>
-      <c r="S31" s="137"/>
-      <c r="T31" s="138"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="137"/>
-      <c r="W31" s="137"/>
-      <c r="X31" s="138"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A2:AB2"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C25:AA25"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A7:C22"/>
     <mergeCell ref="D27:L27"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A29:L29"/>
@@ -13711,22 +13731,6 @@
     <mergeCell ref="I30:L31"/>
     <mergeCell ref="M30:P31"/>
     <mergeCell ref="Q30:T31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C25:AA25"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A7:C22"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="A2:AB2"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
